--- a/src/Quadrotor_States3.xlsx
+++ b/src/Quadrotor_States3.xlsx
@@ -428,761 +428,761 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>260.0055742104875</v>
+        <v>260.0002878026372</v>
       </c>
       <c r="B2">
-        <v>249.99806810542117</v>
+        <v>249.9983883126787</v>
       </c>
       <c r="C2">
-        <v>10.865065132539772</v>
+        <v>10.864937702144982</v>
       </c>
       <c r="D2">
-        <v>0.9999663153133453</v>
+        <v>0.9999992802068782</v>
       </c>
       <c r="E2">
-        <v>0.0027714953327350007</v>
+        <v>0.0023121071142810433</v>
       </c>
       <c r="F2">
-        <v>0.0079972156073347</v>
+        <v>0.00041287812123195176</v>
       </c>
       <c r="G2">
-        <v>2.069664242785558e-6</v>
+        <v>4.3459450592925667e-10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>260.022337253458</v>
+        <v>259.9943134574173</v>
       </c>
       <c r="B3">
-        <v>250.0015138223158</v>
+        <v>249.98096178032264</v>
       </c>
       <c r="C3">
-        <v>11.65123176678943</v>
+        <v>11.650663043343412</v>
       </c>
       <c r="D3">
-        <v>0.9996844072724044</v>
+        <v>0.9996347288572167</v>
       </c>
       <c r="E3">
-        <v>-0.0051370761787027965</v>
+        <v>0.025991224768841383</v>
       </c>
       <c r="F3">
-        <v>0.024961128440411588</v>
+        <v>-0.008896521975065502</v>
       </c>
       <c r="G3">
-        <v>-1.5252417767006396e-5</v>
+        <v>-2.464209848053743e-5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>260.0397626357943</v>
+        <v>259.98780662654</v>
       </c>
       <c r="B4">
-        <v>250.00512086283697</v>
+        <v>249.96186399412224</v>
       </c>
       <c r="C4">
-        <v>12.36511333922828</v>
+        <v>12.364598566779904</v>
       </c>
       <c r="D4">
-        <v>0.9996325371524404</v>
+        <v>0.9995256232158286</v>
       </c>
       <c r="E4">
-        <v>-0.0055778294348048105</v>
+        <v>0.029542263969808663</v>
       </c>
       <c r="F4">
-        <v>0.026908373474139338</v>
+        <v>-0.010044562587369039</v>
       </c>
       <c r="G4">
-        <v>-2.2607017779285855e-5</v>
+        <v>9.872360942379693e-5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>260.057885034212</v>
+        <v>259.9809551625287</v>
       </c>
       <c r="B5">
-        <v>250.00887191823472</v>
+        <v>249.9417658079292</v>
       </c>
       <c r="C5">
-        <v>13.01339076214624</v>
+        <v>13.013217337176792</v>
       </c>
       <c r="D5">
-        <v>0.9995738156810323</v>
+        <v>0.9994356122958158</v>
       </c>
       <c r="E5">
-        <v>-0.0060037512285108325</v>
+        <v>0.03217757377601739</v>
       </c>
       <c r="F5">
-        <v>0.02895755160249214</v>
+        <v>-0.010940528025014277</v>
       </c>
       <c r="G5">
-        <v>-2.9271693743808183e-5</v>
+        <v>0.00012159830154739718</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>260.0775130938285</v>
+        <v>259.97190486245125</v>
       </c>
       <c r="B6">
-        <v>250.0129365616951</v>
+        <v>249.9214671887811</v>
       </c>
       <c r="C6">
-        <v>13.603088624503146</v>
+        <v>13.601510835147828</v>
       </c>
       <c r="D6">
-        <v>0.9994532754136571</v>
+        <v>0.9993408398482525</v>
       </c>
       <c r="E6">
-        <v>-0.0066954328831172975</v>
+        <v>0.03358208955349479</v>
       </c>
       <c r="F6">
-        <v>0.03241544801638002</v>
+        <v>-0.014930304133917233</v>
       </c>
       <c r="G6">
-        <v>0.00032618834912794144</v>
+        <v>0.0015697737994939363</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>260.09731051764965</v>
+        <v>259.9608918008956</v>
       </c>
       <c r="B7">
-        <v>249.9299414283183</v>
+        <v>249.8965285064425</v>
       </c>
       <c r="C7">
-        <v>14.20227410633216</v>
+        <v>14.140249845106236</v>
       </c>
       <c r="D7">
-        <v>0.9902064415815269</v>
+        <v>0.9989252861421347</v>
       </c>
       <c r="E7">
-        <v>0.13572907259034497</v>
+        <v>0.04236554262252619</v>
       </c>
       <c r="F7">
-        <v>0.03238314411251703</v>
+        <v>-0.018709350646830058</v>
       </c>
       <c r="G7">
-        <v>0.000211586488473623</v>
+        <v>0.00017885793907870264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>260.1177705505688</v>
+        <v>259.94948017549103</v>
       </c>
       <c r="B8">
-        <v>249.84413081471055</v>
+        <v>249.87069881230076</v>
       </c>
       <c r="C8">
-        <v>14.7537756222906</v>
+        <v>14.629993586820746</v>
       </c>
       <c r="D8">
-        <v>0.9889665800639563</v>
+        <v>0.9987797543469268</v>
       </c>
       <c r="E8">
-        <v>0.1440084991167123</v>
+        <v>0.045128713646074486</v>
       </c>
       <c r="F8">
-        <v>0.03434312552421582</v>
+        <v>-0.019938564893863475</v>
       </c>
       <c r="G8">
-        <v>0.00028736488138474575</v>
+        <v>0.00028054153313486843</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>260.1389077400952</v>
+        <v>259.9376683411087</v>
       </c>
       <c r="B9">
-        <v>249.75544615985962</v>
+        <v>249.8439818388795</v>
       </c>
       <c r="C9">
-        <v>15.262520153576121</v>
+        <v>15.075284661569924</v>
       </c>
       <c r="D9">
-        <v>0.9876327702444958</v>
+        <v>0.9986232982922177</v>
       </c>
       <c r="E9">
-        <v>0.15239820127881928</v>
+        <v>0.04791653358545916</v>
       </c>
       <c r="F9">
-        <v>0.03632927867229073</v>
+        <v>-0.021185065185635486</v>
       </c>
       <c r="G9">
-        <v>0.0003646649971534138</v>
+        <v>0.00044561234538955015</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>260.160747413925</v>
+        <v>259.92571193489925</v>
       </c>
       <c r="B10">
-        <v>249.66381429799245</v>
+        <v>249.8168792518992</v>
       </c>
       <c r="C10">
-        <v>15.733028287207183</v>
+        <v>15.482969487005084</v>
       </c>
       <c r="D10">
-        <v>0.9862009616369322</v>
+        <v>0.9985227276614603</v>
       </c>
       <c r="E10">
-        <v>0.16089649639041248</v>
+        <v>0.04972491671783179</v>
       </c>
       <c r="F10">
-        <v>0.03835381343670038</v>
+        <v>-0.021936027509565623</v>
       </c>
       <c r="G10">
-        <v>0.0004086009829786457</v>
+        <v>2.238909846392911e-6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>260.183339994899</v>
+        <v>259.9133446874144</v>
       </c>
       <c r="B11">
-        <v>249.56923590237497</v>
+        <v>249.78884544578742</v>
       </c>
       <c r="C11">
-        <v>16.168952233105976</v>
+        <v>15.854173972949564</v>
       </c>
       <c r="D11">
-        <v>0.9846873628410922</v>
+        <v>0.9983464869872377</v>
       </c>
       <c r="E11">
-        <v>0.16940046585115806</v>
+        <v>0.05260333860031909</v>
       </c>
       <c r="F11">
-        <v>0.04046669983716183</v>
+        <v>-0.023205881300754166</v>
       </c>
       <c r="G11">
-        <v>1.6342013616497456e-5</v>
+        <v>2.6295146670099873e-6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>260.2025101503158</v>
+        <v>259.9005723990497</v>
       </c>
       <c r="B12">
-        <v>249.42914182272798</v>
+        <v>249.75989357111655</v>
       </c>
       <c r="C12">
-        <v>16.672168632345024</v>
+        <v>16.192295387349542</v>
       </c>
       <c r="D12">
-        <v>0.9700534067542643</v>
+        <v>0.9981610841378784</v>
       </c>
       <c r="E12">
-        <v>0.23937350584708347</v>
+        <v>0.055469756535581956</v>
       </c>
       <c r="F12">
-        <v>0.032765461507165396</v>
+        <v>-0.024470442748811983</v>
       </c>
       <c r="G12">
-        <v>-0.018107411903872328</v>
+        <v>3.0534625645564738e-6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>260.22286039582355</v>
+        <v>259.88740527085</v>
       </c>
       <c r="B13">
-        <v>249.29017602313743</v>
+        <v>249.730046750286</v>
       </c>
       <c r="C13">
-        <v>17.136100363702802</v>
+        <v>16.50040697426785</v>
       </c>
       <c r="D13">
-        <v>0.9689945227957705</v>
+        <v>0.9979685181365461</v>
       </c>
       <c r="E13">
-        <v>0.2428285561238526</v>
+        <v>0.05829723510096724</v>
       </c>
       <c r="F13">
-        <v>0.035571768629474115</v>
+        <v>-0.025717826580947716</v>
       </c>
       <c r="G13">
-        <v>-0.022385649281640427</v>
+        <v>3.502866571498843e-6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>260.2449706134911</v>
+        <v>259.8738589778232</v>
       </c>
       <c r="B14">
-        <v>249.15335907289483</v>
+        <v>249.69934051227284</v>
       </c>
       <c r="C14">
-        <v>17.561841173798346</v>
+        <v>16.78128437608075</v>
       </c>
       <c r="D14">
-        <v>0.9682407407188107</v>
+        <v>0.9977715286412769</v>
       </c>
       <c r="E14">
-        <v>0.24449538673481122</v>
+        <v>0.061053623116909386</v>
       </c>
       <c r="F14">
-        <v>0.03952607914297528</v>
+        <v>-0.026933847659892544</v>
       </c>
       <c r="G14">
-        <v>-0.028884846157797475</v>
+        <v>3.977959517857644e-6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>260.2688392512024</v>
+        <v>259.8599538086463</v>
       </c>
       <c r="B15">
-        <v>249.0191474522903</v>
+        <v>249.66782083975258</v>
       </c>
       <c r="C15">
-        <v>17.95133464333454</v>
+        <v>17.037430959878854</v>
       </c>
       <c r="D15">
-        <v>0.9676002244653295</v>
+        <v>0.9975730117553784</v>
       </c>
       <c r="E15">
-        <v>0.24511984183638774</v>
+        <v>0.06371019869544446</v>
       </c>
       <c r="F15">
-        <v>0.04361117089502769</v>
+        <v>-0.028105831400714102</v>
       </c>
       <c r="G15">
-        <v>-0.03756726817390034</v>
+        <v>4.468677839944895e-6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>260.29508842725784</v>
+        <v>259.8457163063952</v>
       </c>
       <c r="B16">
-        <v>248.8871015268255</v>
+        <v>249.63554788764233</v>
       </c>
       <c r="C16">
-        <v>18.30849119492452</v>
+        <v>17.271099061342262</v>
       </c>
       <c r="D16">
-        <v>0.9667288015959726</v>
+        <v>0.9973767992148367</v>
       </c>
       <c r="E16">
-        <v>0.24595374740755624</v>
+        <v>0.0662306851274869</v>
       </c>
       <c r="F16">
-        <v>0.04891417407525433</v>
+        <v>-0.029217769797641024</v>
       </c>
       <c r="G16">
-        <v>-0.04660917354211539</v>
+        <v>4.964730085580194e-6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>260.32123641611315</v>
+        <v>259.8311794244822</v>
       </c>
       <c r="B17">
-        <v>248.75774383198814</v>
+        <v>249.60259633542256</v>
       </c>
       <c r="C17">
-        <v>18.632718614052287</v>
+        <v>17.48431022869064</v>
       </c>
       <c r="D17">
-        <v>0.966584376915336</v>
+        <v>0.9971871889854145</v>
       </c>
       <c r="E17">
-        <v>0.2460404365801708</v>
+        <v>0.06857783831390374</v>
       </c>
       <c r="F17">
-        <v>0.04975588941744832</v>
+        <v>-0.030253226945523157</v>
       </c>
       <c r="G17">
-        <v>-0.04818369503304104</v>
+        <v>5.451735191867608e-6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>260.3468600172328</v>
+        <v>259.8163828791311</v>
       </c>
       <c r="B18">
-        <v>248.63090574940847</v>
+        <v>249.56905618570704</v>
       </c>
       <c r="C18">
-        <v>18.92677121496866</v>
+        <v>17.678873797174923</v>
       </c>
       <c r="D18">
-        <v>0.9665749632352596</v>
+        <v>0.9970089581582066</v>
       </c>
       <c r="E18">
-        <v>0.24603433709219447</v>
+        <v>0.07071264244784971</v>
       </c>
       <c r="F18">
-        <v>0.049725505574634066</v>
+        <v>-0.031194984801632405</v>
       </c>
       <c r="G18">
-        <v>-0.04843046186405801</v>
+        <v>5.913288967981186e-6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>260.3719002707237</v>
+        <v>259.8013735517305</v>
       </c>
       <c r="B19">
-        <v>248.5063443915013</v>
+        <v>249.53503367670643</v>
       </c>
       <c r="C19">
-        <v>19.193506566830425</v>
+        <v>17.85640416313118</v>
       </c>
       <c r="D19">
-        <v>0.9665843270093571</v>
+        <v>0.9968473161545472</v>
       </c>
       <c r="E19">
-        <v>0.2460400174996888</v>
+        <v>0.07259408695490939</v>
       </c>
       <c r="F19">
-        <v>0.049482920422242366</v>
+        <v>-0.03202494547770348</v>
       </c>
       <c r="G19">
-        <v>-0.04846505472568624</v>
+        <v>6.332414334985943e-6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>260.3961630735681</v>
+        <v>259.78620569262</v>
       </c>
       <c r="B20">
-        <v>248.3837892091369</v>
+        <v>249.50065174152684</v>
       </c>
       <c r="C20">
-        <v>19.43601743516651</v>
+        <v>18.018337157208496</v>
       </c>
       <c r="D20">
-        <v>0.9666492230520588</v>
+        <v>0.9967077347576488</v>
       </c>
       <c r="E20">
-        <v>0.24608057864839675</v>
+        <v>0.07418009394848103</v>
       </c>
       <c r="F20">
-        <v>0.048739550595373826</v>
+        <v>-0.03272453807429451</v>
       </c>
       <c r="G20">
-        <v>-0.047732576879954705</v>
+        <v>6.6818393170523605e-6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>260.4196300648191</v>
+        <v>259.7709412632828</v>
       </c>
       <c r="B21">
-        <v>248.26304964390297</v>
+        <v>249.46605078714907</v>
       </c>
       <c r="C21">
-        <v>19.6565632820373</v>
+        <v>18.165945706255197</v>
       </c>
       <c r="D21">
-        <v>0.9667251717916767</v>
+        <v>0.9965958831017835</v>
       </c>
       <c r="E21">
-        <v>0.24612805804004376</v>
+        <v>0.07542678174985988</v>
       </c>
       <c r="F21">
-        <v>0.04785910874411802</v>
+        <v>-0.03327439850876786</v>
       </c>
       <c r="G21">
-        <v>-0.0468562970324146</v>
+        <v>6.94007372086593e-6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>260.4430340928299</v>
+        <v>259.7597397150033</v>
       </c>
       <c r="B22">
-        <v>248.14547734695302</v>
+        <v>249.35056004508476</v>
       </c>
       <c r="C22">
-        <v>19.839575869261992</v>
+        <v>18.443748366470636</v>
       </c>
       <c r="D22">
-        <v>0.9665610463777387</v>
+        <v>0.9734502820551176</v>
       </c>
       <c r="E22">
-        <v>0.2460252713463701</v>
+        <v>0.22730960021155436</v>
       </c>
       <c r="F22">
-        <v>0.048996528976198994</v>
+        <v>-0.022049355369581358</v>
       </c>
       <c r="G22">
-        <v>-0.04947514628326133</v>
+        <v>0.002889459305219203</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>260.4682575754819</v>
+        <v>259.74796131082417</v>
       </c>
       <c r="B23">
-        <v>248.03402229858673</v>
+        <v>249.2336738917258</v>
       </c>
       <c r="C23">
-        <v>19.951441727383276</v>
+        <v>18.705956922120883</v>
       </c>
       <c r="D23">
-        <v>0.9656470878411657</v>
+        <v>0.9722191723450032</v>
       </c>
       <c r="E23">
-        <v>0.24546390944947594</v>
+        <v>0.23232227975604727</v>
       </c>
       <c r="F23">
-        <v>0.05557768443983966</v>
+        <v>-0.023414118905147004</v>
       </c>
       <c r="G23">
-        <v>-0.061411058692395014</v>
+        <v>0.004192637158709531</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>260.48508488089203</v>
+        <v>259.7349122729767</v>
       </c>
       <c r="B24">
-        <v>247.9303951891675</v>
+        <v>249.11533260215643</v>
       </c>
       <c r="C24">
-        <v>19.99999999814471</v>
+        <v>18.954244548322357</v>
       </c>
       <c r="D24">
-        <v>0.9691128902021727</v>
+        <v>0.9709114025218826</v>
       </c>
       <c r="E24">
-        <v>0.24006262206675033</v>
+        <v>0.23727647614345052</v>
       </c>
       <c r="F24">
-        <v>0.03900180129209003</v>
+        <v>-0.026168808041649876</v>
       </c>
       <c r="G24">
-        <v>-0.03671498765497959</v>
+        <v>0.008368521345738499</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>260.49658955178046</v>
+        <v>259.72067894898225</v>
       </c>
       <c r="B25">
-        <v>247.8324021548955</v>
+        <v>248.9954547656741</v>
       </c>
       <c r="C25">
-        <v>19.9999999995168</v>
+        <v>19.1907966531084</v>
       </c>
       <c r="D25">
-        <v>0.9709563727634923</v>
+        <v>0.9695879288138133</v>
       </c>
       <c r="E25">
-        <v>0.23625398857452962</v>
+        <v>0.24212118322699067</v>
       </c>
       <c r="F25">
-        <v>0.02774833852409537</v>
+        <v>-0.028754599482459897</v>
       </c>
       <c r="G25">
-        <v>-0.019480671538514596</v>
+        <v>0.01216024144421478</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>260.5079718403818</v>
+        <v>259.7046687860051</v>
       </c>
       <c r="B26">
-        <v>247.7344107593391</v>
+        <v>248.87393983900384</v>
       </c>
       <c r="C26">
-        <v>19.999999999508514</v>
+        <v>19.417563883320582</v>
       </c>
       <c r="D26">
-        <v>0.9709687658092503</v>
+        <v>0.9681495902146381</v>
       </c>
       <c r="E26">
-        <v>0.23625175560690775</v>
+        <v>0.24689374402560413</v>
       </c>
       <c r="F26">
-        <v>0.027453391068285853</v>
+        <v>-0.03253853126279768</v>
       </c>
       <c r="G26">
-        <v>-0.019314356989224797</v>
+        <v>0.018374363390541586</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>260.5192305318757</v>
+        <v>259.6862900810947</v>
       </c>
       <c r="B27">
-        <v>247.63642102022365</v>
+        <v>248.7538857734578</v>
       </c>
       <c r="C27">
-        <v>19.999999999518646</v>
+        <v>19.62702771525995</v>
       </c>
       <c r="D27">
-        <v>0.9709811874704027</v>
+        <v>0.9677547938252662</v>
       </c>
       <c r="E27">
-        <v>0.23624948500494652</v>
+        <v>0.24680026071070504</v>
       </c>
       <c r="F27">
-        <v>0.027155509304824122</v>
+        <v>-0.037795349347847396</v>
       </c>
       <c r="G27">
-        <v>-0.019145241082333817</v>
+        <v>0.02769372374501736</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>260.53036440047333</v>
+        <v>259.66597569972646</v>
       </c>
       <c r="B28">
-        <v>247.538432954832</v>
+        <v>248.63520290076278</v>
       </c>
       <c r="C28">
-        <v>19.999999999563858</v>
+        <v>19.821257110057036</v>
       </c>
       <c r="D28">
-        <v>0.9709936346150423</v>
+        <v>0.9673485350075756</v>
       </c>
       <c r="E28">
-        <v>0.23624717748225518</v>
+        <v>0.24652716628489404</v>
       </c>
       <c r="F28">
-        <v>0.02685466664625716</v>
+        <v>-0.042214181239455716</v>
       </c>
       <c r="G28">
-        <v>-0.0189732977486894</v>
+        <v>0.03635371988019857</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>260.54137220470346</v>
+        <v>259.6415924903072</v>
       </c>
       <c r="B29">
-        <v>247.4404465802092</v>
+        <v>248.52297934142803</v>
       </c>
       <c r="C29">
-        <v>19.999999999531408</v>
+        <v>19.94159831372103</v>
       </c>
       <c r="D29">
-        <v>0.9710061047908839</v>
+        <v>0.9659631626059105</v>
       </c>
       <c r="E29">
-        <v>0.23624483335650026</v>
+        <v>0.24565657468854482</v>
       </c>
       <c r="F29">
-        <v>0.026550825140428502</v>
+        <v>-0.05340003176536985</v>
       </c>
       <c r="G29">
-        <v>-0.018798481992002864</v>
+        <v>0.05756703853948673</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>260.55225268728435</v>
+        <v>259.62376052655884</v>
       </c>
       <c r="B30">
-        <v>247.342461913044</v>
+        <v>248.41794482144354</v>
       </c>
       <c r="C30">
-        <v>19.999999999458385</v>
+        <v>19.999999997853003</v>
       </c>
       <c r="D30">
-        <v>0.9710185954068806</v>
+        <v>0.9684570266841195</v>
       </c>
       <c r="E30">
-        <v>0.23624245303319455</v>
+        <v>0.24136208105394805</v>
       </c>
       <c r="F30">
-        <v>0.026243946504223334</v>
+        <v>-0.040998626891935695</v>
       </c>
       <c r="G30">
-        <v>-0.01862074840619163</v>
+        <v>0.042622982887400775</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>260.5628314841293</v>
+        <v>259.61464508749606</v>
       </c>
       <c r="B31">
-        <v>247.2444978634122</v>
+        <v>248.32000131240653</v>
       </c>
       <c r="C31">
-        <v>19.99997832692224</v>
+        <v>19.999976078476294</v>
       </c>
       <c r="D31">
-        <v>0.9710674445412284</v>
+        <v>0.9712028571171406</v>
       </c>
       <c r="E31">
-        <v>0.23620412088470302</v>
+        <v>0.2361743106754203</v>
       </c>
       <c r="F31">
-        <v>0.02551718369181353</v>
+        <v>-0.021989533480778294</v>
       </c>
       <c r="G31">
-        <v>-0.017585156412435306</v>
+        <v>0.015208081299252545</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>260.5732864137632</v>
+        <v>259.6060212463125</v>
       </c>
       <c r="B32">
-        <v>247.1465336272799</v>
+        <v>248.22206206968752</v>
       </c>
       <c r="C32">
-        <v>19.99997832565863</v>
+        <v>19.99997379700073</v>
       </c>
       <c r="D32">
-        <v>0.9710788016158967</v>
+        <v>0.9712431062492859</v>
       </c>
       <c r="E32">
-        <v>0.23620280064219773</v>
+        <v>0.23616598412877352</v>
       </c>
       <c r="F32">
-        <v>0.025218236305980055</v>
+        <v>-0.02080418846565598</v>
       </c>
       <c r="G32">
-        <v>-0.017413331726867327</v>
+        <v>0.01444452144893002</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>260.5810634978919</v>
+        <v>259.59789432490425</v>
       </c>
       <c r="B33">
-        <v>247.0486024955611</v>
+        <v>248.124127855654</v>
       </c>
       <c r="C33">
-        <v>19.999973778473116</v>
+        <v>19.99997378720053</v>
       </c>
       <c r="D33">
-        <v>0.9713059280823464</v>
+        <v>0.9712809929059415</v>
       </c>
       <c r="E33">
-        <v>0.236155510713179</v>
+        <v>0.23615877751817385</v>
       </c>
       <c r="F33">
-        <v>0.018761662459160878</v>
+        <v>-0.019605890835138376</v>
       </c>
       <c r="G33">
-        <v>-0.013179316724844948</v>
+        <v>0.01370034916322505</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>260.5887652494847</v>
+        <v>259.5905504063567</v>
       </c>
       <c r="B34">
-        <v>246.95067175841018</v>
+        <v>248.0262203628549</v>
       </c>
       <c r="C34">
-        <v>19.999973777215672</v>
+        <v>19.999978298408372</v>
       </c>
       <c r="D34">
-        <v>0.9713112701901341</v>
+        <v>0.9713604404898503</v>
       </c>
       <c r="E34">
-        <v>0.23615456881567354</v>
+        <v>0.2361064226816632</v>
       </c>
       <c r="F34">
-        <v>0.018579935276853966</v>
+        <v>-0.017717941598074223</v>
       </c>
       <c r="G34">
-        <v>-0.013063883373605976</v>
+        <v>0.011574708767048794</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States3.xlsx
+++ b/src/Quadrotor_States3.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,232 +428,922 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>9.999419383823325</v>
+        <v>260.5965519240786</v>
       </c>
       <c r="B2">
-        <v>17.563183933273663</v>
+        <v>249.5524805640067</v>
       </c>
       <c r="C2">
-        <v>5.047202603342847</v>
+        <v>12.837168401305412</v>
       </c>
       <c r="D2">
-        <v>0.9999810968898173</v>
+        <v>0.9999994514042762</v>
       </c>
       <c r="E2">
-        <v>-0.004170317199364603</v>
+        <v>-0.0006908241124870175</v>
       </c>
       <c r="F2">
-        <v>-2.370232925651643e-6</v>
+        <v>-0.0009377302619536576</v>
       </c>
       <c r="G2">
-        <v>-2.6852732304395576e-5</v>
+        <v>-0.00018291728382624346</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>9.999223131732718</v>
+        <v>262.41098188030884</v>
       </c>
       <c r="B3">
-        <v>18.64244365696757</v>
+        <v>249.64725440799737</v>
       </c>
       <c r="C3">
-        <v>4.940073682848665</v>
+        <v>15.996583635684564</v>
       </c>
       <c r="D3">
-        <v>0.9999372817761922</v>
+        <v>0.9999881703545126</v>
       </c>
       <c r="E3">
-        <v>0.004216140107363299</v>
+        <v>-0.0012479476902089858</v>
       </c>
       <c r="F3">
-        <v>-5.51038854850081e-5</v>
+        <v>-0.0049924458755774325</v>
       </c>
       <c r="G3">
-        <v>-0.0005377762271532458</v>
+        <v>-2.8484068986816527e-6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9.999429478534521</v>
+        <v>263.5503839770875</v>
       </c>
       <c r="B4">
-        <v>17.009986116155336</v>
+        <v>248.49777748173298</v>
       </c>
       <c r="C4">
-        <v>4.897024850367908</v>
+        <v>18.71689254478018</v>
       </c>
       <c r="D4">
-        <v>0.9999563697998017</v>
+        <v>0.9999854297532947</v>
       </c>
       <c r="E4">
-        <v>-0.004123101712880652</v>
+        <v>-0.0040309418438925744</v>
       </c>
       <c r="F4">
-        <v>-1.737287817316573e-5</v>
+        <v>-0.00399647186126986</v>
       </c>
       <c r="G4">
-        <v>-0.0023911694854594685</v>
+        <v>-4.580486563680205e-6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9.999324262898165</v>
+        <v>264.4775976591494</v>
       </c>
       <c r="B5">
-        <v>17.2028392692869</v>
+        <v>247.05193199073832</v>
       </c>
       <c r="C5">
-        <v>4.880225388830712</v>
+        <v>21.320856909025245</v>
       </c>
       <c r="D5">
-        <v>0.9999783961219673</v>
+        <v>0.9999836377168337</v>
       </c>
       <c r="E5">
-        <v>0.00013356868858508265</v>
+        <v>-0.005046321120888739</v>
       </c>
       <c r="F5">
-        <v>1.8676071354720413e-5</v>
+        <v>-0.003237186593187563</v>
       </c>
       <c r="G5">
-        <v>-0.00870225604189551</v>
+        <v>-5.870856408052514e-6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>9.999295606236506</v>
+        <v>265.2613744284772</v>
       </c>
       <c r="B6">
-        <v>16.28179411397687</v>
+        <v>245.1364998814298</v>
       </c>
       <c r="C6">
-        <v>4.877923593770305</v>
+        <v>23.37683083659497</v>
       </c>
       <c r="D6">
-        <v>1.0000011222226854</v>
+        <v>0.9999764812732775</v>
       </c>
       <c r="E6">
-        <v>-0.0002660354394847642</v>
+        <v>-0.006588929784100208</v>
       </c>
       <c r="F6">
-        <v>8.3688988754246e-6</v>
+        <v>-0.002697856969210917</v>
       </c>
       <c r="G6">
-        <v>-0.010455182613246393</v>
+        <v>-1.1978708675190264e-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>9.99934517164789</v>
+        <v>265.7263825809013</v>
       </c>
       <c r="B7">
-        <v>16.03114858041635</v>
+        <v>242.90590626933906</v>
       </c>
       <c r="C7">
-        <v>4.876271848654772</v>
+        <v>24.927580669500315</v>
       </c>
       <c r="D7">
-        <v>1.0000158545198647</v>
+        <v>0.9999717365900501</v>
       </c>
       <c r="E7">
-        <v>-7.43313002189232e-5</v>
+        <v>-0.007603356060557549</v>
       </c>
       <c r="F7">
-        <v>1.2799987153929226e-7</v>
+        <v>-0.001587385376149779</v>
       </c>
       <c r="G7">
-        <v>-0.005187297556335937</v>
+        <v>-1.922558926466423e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>9.999414895820466</v>
+        <v>266.96546078307216</v>
       </c>
       <c r="B8">
-        <v>15.3837443654572</v>
+        <v>240.8776850926732</v>
       </c>
       <c r="C8">
-        <v>4.880742039216989</v>
+        <v>26.1268118555416</v>
       </c>
       <c r="D8">
-        <v>1.000015357406322</v>
+        <v>0.9999694720953223</v>
       </c>
       <c r="E8">
-        <v>-1.0075959546732945e-5</v>
+        <v>-0.00688712679341291</v>
       </c>
       <c r="F8">
-        <v>1.3186506157569473e-5</v>
+        <v>-0.004210504255040602</v>
       </c>
       <c r="G8">
-        <v>-0.008026912464505664</v>
+        <v>-2.0792932368281814e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>9.86733621330737</v>
+        <v>268.32800701667014</v>
       </c>
       <c r="B9">
-        <v>14.973862508203137</v>
+        <v>238.86337463813115</v>
       </c>
       <c r="C9">
-        <v>4.8806844202533215</v>
+        <v>27.04434896952862</v>
       </c>
       <c r="D9">
-        <v>0.9999994895793504</v>
+        <v>0.9999682505062055</v>
       </c>
       <c r="E9">
-        <v>-0.0001415995447234908</v>
+        <v>-0.006816881792151111</v>
       </c>
       <c r="F9">
-        <v>-0.0003342686982621603</v>
+        <v>-0.00461465654603294</v>
       </c>
       <c r="G9">
-        <v>-0.007799968619077092</v>
+        <v>-2.327813244084437e-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>9.797146457854744</v>
+        <v>269.31990965374433</v>
       </c>
       <c r="B10">
-        <v>14.435537325674947</v>
+        <v>236.61382594029342</v>
       </c>
       <c r="C10">
-        <v>4.883951862800956</v>
+        <v>27.76877592978448</v>
       </c>
       <c r="D10">
-        <v>1.0000094715466397</v>
+        <v>0.999967708884153</v>
       </c>
       <c r="E10">
-        <v>-0.00021787900296095004</v>
+        <v>-0.007590608103607351</v>
       </c>
       <c r="F10">
-        <v>-0.0001168521895099952</v>
+        <v>-0.0033504964165266857</v>
       </c>
       <c r="G10">
-        <v>-0.006169557345397672</v>
+        <v>-2.815545386355875e-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9.734075538656876</v>
+        <v>270.9883816912301</v>
       </c>
       <c r="B11">
-        <v>13.965789926579689</v>
+        <v>234.78440058109652</v>
       </c>
       <c r="C11">
-        <v>4.887493190132447</v>
+        <v>28.31175683651362</v>
       </c>
       <c r="D11">
-        <v>0.9999995556244706</v>
+        <v>0.9999674235619873</v>
       </c>
       <c r="E11">
-        <v>-8.273347722747295e-5</v>
+        <v>-0.006166776158920512</v>
       </c>
       <c r="F11">
-        <v>5.578704904564119e-6</v>
+        <v>-0.005628484627028303</v>
       </c>
       <c r="G11">
-        <v>-0.00799716528743605</v>
+        <v>-2.4307884578172738e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>272.9921010984049</v>
+      </c>
+      <c r="B12">
+        <v>233.31901459119373</v>
+      </c>
+      <c r="C12">
+        <v>28.714183703899895</v>
+      </c>
+      <c r="D12">
+        <v>0.9999659511991206</v>
+      </c>
+      <c r="E12">
+        <v>-0.004944703631385123</v>
+      </c>
+      <c r="F12">
+        <v>-0.006765104560393023</v>
+      </c>
+      <c r="G12">
+        <v>-2.195375990127413e-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>274.8890199919067</v>
+      </c>
+      <c r="B13">
+        <v>231.71311157486238</v>
+      </c>
+      <c r="C13">
+        <v>29.0316321884279</v>
+      </c>
+      <c r="D13">
+        <v>0.9999659584832121</v>
+      </c>
+      <c r="E13">
+        <v>-0.005411843724275475</v>
+      </c>
+      <c r="F13">
+        <v>-0.006396450314566776</v>
+      </c>
+      <c r="G13">
+        <v>-2.3152210693573094e-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>276.59741650187664</v>
+      </c>
+      <c r="B14">
+        <v>229.90296311657204</v>
+      </c>
+      <c r="C14">
+        <v>29.269213603623164</v>
+      </c>
+      <c r="D14">
+        <v>0.9999673961723269</v>
+      </c>
+      <c r="E14">
+        <v>-0.006081624276896686</v>
+      </c>
+      <c r="F14">
+        <v>-0.005744509577051656</v>
+      </c>
+      <c r="G14">
+        <v>-2.6294776460467566e-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>278.6415130638629</v>
+      </c>
+      <c r="B15">
+        <v>228.48621487690005</v>
+      </c>
+      <c r="C15">
+        <v>29.458457908271313</v>
+      </c>
+      <c r="D15">
+        <v>0.999966055503128</v>
+      </c>
+      <c r="E15">
+        <v>-0.004765360630033439</v>
+      </c>
+      <c r="F15">
+        <v>-0.0068796996775600085</v>
+      </c>
+      <c r="G15">
+        <v>-2.2840794256459794e-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>280.2136447750583</v>
+      </c>
+      <c r="B16">
+        <v>226.5566293084541</v>
+      </c>
+      <c r="C16">
+        <v>29.594968010417862</v>
+      </c>
+      <c r="D16">
+        <v>0.9999675097737849</v>
+      </c>
+      <c r="E16">
+        <v>-0.006474637371180277</v>
+      </c>
+      <c r="F16">
+        <v>-0.005279943700629888</v>
+      </c>
+      <c r="G16">
+        <v>-2.8747970499607416e-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>281.719744822449</v>
+      </c>
+      <c r="B17">
+        <v>224.57564783794294</v>
+      </c>
+      <c r="C17">
+        <v>29.700370260954</v>
+      </c>
+      <c r="D17">
+        <v>0.9999675566140395</v>
+      </c>
+      <c r="E17">
+        <v>-0.006644179880499525</v>
+      </c>
+      <c r="F17">
+        <v>-0.005056130007594632</v>
+      </c>
+      <c r="G17">
+        <v>-2.9785397565666125e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>283.75774581017214</v>
+      </c>
+      <c r="B18">
+        <v>223.15243902046936</v>
+      </c>
+      <c r="C18">
+        <v>29.77976931470149</v>
+      </c>
+      <c r="D18">
+        <v>0.9999662189530266</v>
+      </c>
+      <c r="E18">
+        <v>-0.0047793323526748345</v>
+      </c>
+      <c r="F18">
+        <v>-0.006848214852061109</v>
+      </c>
+      <c r="G18">
+        <v>-2.3394562932790267e-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>285.82633063155765</v>
+      </c>
+      <c r="B19">
+        <v>221.7748994347012</v>
+      </c>
+      <c r="C19">
+        <v>29.840760397493547</v>
+      </c>
+      <c r="D19">
+        <v>0.9999662535225518</v>
+      </c>
+      <c r="E19">
+        <v>-0.004624700028299626</v>
+      </c>
+      <c r="F19">
+        <v>-0.006949075885064904</v>
+      </c>
+      <c r="G19">
+        <v>-2.3229001878171003e-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>287.9975885982919</v>
+      </c>
+      <c r="B20">
+        <v>220.56653766899336</v>
+      </c>
+      <c r="C20">
+        <v>29.886682821546373</v>
+      </c>
+      <c r="D20">
+        <v>0.9999662832916999</v>
+      </c>
+      <c r="E20">
+        <v>-0.004055686985141381</v>
+      </c>
+      <c r="F20">
+        <v>-0.007292063733932816</v>
+      </c>
+      <c r="G20">
+        <v>-2.239440942368385e-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>290.1683885851804</v>
+      </c>
+      <c r="B21">
+        <v>219.3584332849427</v>
+      </c>
+      <c r="C21">
+        <v>29.916156322996674</v>
+      </c>
+      <c r="D21">
+        <v>0.9999663200363398</v>
+      </c>
+      <c r="E21">
+        <v>-0.004053665858808189</v>
+      </c>
+      <c r="F21">
+        <v>-0.007288468258100647</v>
+      </c>
+      <c r="G21">
+        <v>-2.2457451857202478e-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>291.9654952948279</v>
+      </c>
+      <c r="B22">
+        <v>217.63982212386804</v>
+      </c>
+      <c r="C22">
+        <v>29.9454458703596</v>
+      </c>
+      <c r="D22">
+        <v>0.999967699168312</v>
+      </c>
+      <c r="E22">
+        <v>-0.0057616651411645115</v>
+      </c>
+      <c r="F22">
+        <v>-0.006029970490112419</v>
+      </c>
+      <c r="G22">
+        <v>-2.638288853458033e-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>293.29948046749723</v>
+      </c>
+      <c r="B23">
+        <v>215.54117857715173</v>
+      </c>
+      <c r="C23">
+        <v>29.987386874786186</v>
+      </c>
+      <c r="D23">
+        <v>0.9999677206608915</v>
+      </c>
+      <c r="E23">
+        <v>-0.007007597287445246</v>
+      </c>
+      <c r="F23">
+        <v>-0.00445931492959184</v>
+      </c>
+      <c r="G23">
+        <v>-2.6120021752842096e-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>294.63199868821727</v>
+      </c>
+      <c r="B24">
+        <v>213.44484299980112</v>
+      </c>
+      <c r="C24">
+        <v>29.975151267300145</v>
+      </c>
+      <c r="D24">
+        <v>0.9999678010517953</v>
+      </c>
+      <c r="E24">
+        <v>-0.006962199665156439</v>
+      </c>
+      <c r="F24">
+        <v>-0.004430755208630048</v>
+      </c>
+      <c r="G24">
+        <v>-1.4020637502243951e-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>294.69544149380835</v>
+      </c>
+      <c r="B25">
+        <v>210.95394800582656</v>
+      </c>
+      <c r="C25">
+        <v>29.98288750273063</v>
+      </c>
+      <c r="D25">
+        <v>0.999970585217222</v>
+      </c>
+      <c r="E25">
+        <v>-0.008266207328820467</v>
+      </c>
+      <c r="F25">
+        <v>-0.00023131792953329643</v>
+      </c>
+      <c r="G25">
+        <v>0.00017180509169727033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>295.5784191374861</v>
+      </c>
+      <c r="B26">
+        <v>208.63116664023374</v>
+      </c>
+      <c r="C26">
+        <v>29.98173510799038</v>
+      </c>
+      <c r="D26">
+        <v>0.9999728629411198</v>
+      </c>
+      <c r="E26">
+        <v>-0.0072080738123381045</v>
+      </c>
+      <c r="F26">
+        <v>-0.0027483070234104504</v>
+      </c>
+      <c r="G26">
+        <v>5.063933101208396e-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>297.4881966568776</v>
+      </c>
+      <c r="B27">
+        <v>207.0495555678231</v>
+      </c>
+      <c r="C27">
+        <v>29.977909687368555</v>
+      </c>
+      <c r="D27">
+        <v>0.9999615380963076</v>
+      </c>
+      <c r="E27">
+        <v>-0.00546292990536387</v>
+      </c>
+      <c r="F27">
+        <v>-0.0066039882193581105</v>
+      </c>
+      <c r="G27">
+        <v>-4.379017835954133e-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>299.75645774324954</v>
+      </c>
+      <c r="B28">
+        <v>206.03408885415323</v>
+      </c>
+      <c r="C28">
+        <v>29.982333057909184</v>
+      </c>
+      <c r="D28">
+        <v>0.9999704440311828</v>
+      </c>
+      <c r="E28">
+        <v>-0.0031833208936855027</v>
+      </c>
+      <c r="F28">
+        <v>-0.0071439068196651875</v>
+      </c>
+      <c r="G28">
+        <v>-0.0002548693767884465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>301.53157552967696</v>
+      </c>
+      <c r="B29">
+        <v>204.2952556722207</v>
+      </c>
+      <c r="C29">
+        <v>29.981027316411094</v>
+      </c>
+      <c r="D29">
+        <v>0.9999728640498535</v>
+      </c>
+      <c r="E29">
+        <v>-0.005390000030977961</v>
+      </c>
+      <c r="F29">
+        <v>-0.005513071930893558</v>
+      </c>
+      <c r="G29">
+        <v>5.0191392627607436e-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>303.5960370724305</v>
+      </c>
+      <c r="B30">
+        <v>202.92184424750636</v>
+      </c>
+      <c r="C30">
+        <v>29.980396021586934</v>
+      </c>
+      <c r="D30">
+        <v>0.9999615259869913</v>
+      </c>
+      <c r="E30">
+        <v>-0.004734504825308951</v>
+      </c>
+      <c r="F30">
+        <v>-0.0071229283746689805</v>
+      </c>
+      <c r="G30">
+        <v>-4.8204186559942544e-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>305.3907247158589</v>
+      </c>
+      <c r="B31">
+        <v>201.21038458289868</v>
+      </c>
+      <c r="C31">
+        <v>29.979742485063944</v>
+      </c>
+      <c r="D31">
+        <v>0.9999616760211102</v>
+      </c>
+      <c r="E31">
+        <v>-0.005909663922518883</v>
+      </c>
+      <c r="F31">
+        <v>-0.006205317033953187</v>
+      </c>
+      <c r="G31">
+        <v>-3.966679067082042e-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>306.8200426522116</v>
+      </c>
+      <c r="B32">
+        <v>199.18324875868362</v>
+      </c>
+      <c r="C32">
+        <v>29.98075260700197</v>
+      </c>
+      <c r="D32">
+        <v>0.9999615436592342</v>
+      </c>
+      <c r="E32">
+        <v>-0.007041427547090622</v>
+      </c>
+      <c r="F32">
+        <v>-0.004974072223077974</v>
+      </c>
+      <c r="G32">
+        <v>-3.3017428705556046e-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>307.87294688442256</v>
+      </c>
+      <c r="B33">
+        <v>196.93717221614008</v>
+      </c>
+      <c r="C33">
+        <v>29.979884102890626</v>
+      </c>
+      <c r="D33">
+        <v>0.9999615644491835</v>
+      </c>
+      <c r="E33">
+        <v>-0.007829744241310898</v>
+      </c>
+      <c r="F33">
+        <v>-0.0036800072230609936</v>
+      </c>
+      <c r="G33">
+        <v>-2.6765733719850964e-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>307.8940046678925</v>
+      </c>
+      <c r="B34">
+        <v>194.4558801520647</v>
+      </c>
+      <c r="C34">
+        <v>29.980739183786326</v>
+      </c>
+      <c r="D34">
+        <v>0.9999616572415556</v>
+      </c>
+      <c r="E34">
+        <v>-0.008710657293223087</v>
+      </c>
+      <c r="F34">
+        <v>-8.37597910134891e-5</v>
+      </c>
+      <c r="G34">
+        <v>-1.5988052894125264e-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>308.2516568983188</v>
+      </c>
+      <c r="B35">
+        <v>192.0006788767855</v>
+      </c>
+      <c r="C35">
+        <v>29.979971946737617</v>
+      </c>
+      <c r="D35">
+        <v>0.9999615844684142</v>
+      </c>
+      <c r="E35">
+        <v>-0.008606438216254775</v>
+      </c>
+      <c r="F35">
+        <v>-0.0012635053097584876</v>
+      </c>
+      <c r="G35">
+        <v>-1.8151464425566584e-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>309.3232759505613</v>
+      </c>
+      <c r="B36">
+        <v>189.76349323782898</v>
+      </c>
+      <c r="C36">
+        <v>29.97811152007237</v>
+      </c>
+      <c r="D36">
+        <v>0.9999616290027458</v>
+      </c>
+      <c r="E36">
+        <v>-0.007790725491076994</v>
+      </c>
+      <c r="F36">
+        <v>-0.0037414406498008017</v>
+      </c>
+      <c r="G36">
+        <v>-2.7266038702868475e-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>310.39845254431657</v>
+      </c>
+      <c r="B37">
+        <v>187.51893669828388</v>
+      </c>
+      <c r="C37">
+        <v>29.974643565729796</v>
+      </c>
+      <c r="D37">
+        <v>0.9999705338694949</v>
+      </c>
+      <c r="E37">
+        <v>-0.007235478345071132</v>
+      </c>
+      <c r="F37">
+        <v>-0.0034917500246730423</v>
+      </c>
+      <c r="G37">
+        <v>7.464197945594886e-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>311.4736027762337</v>
+      </c>
+      <c r="B38">
+        <v>185.2744146145153</v>
+      </c>
+      <c r="C38">
+        <v>29.967478040075623</v>
+      </c>
+      <c r="D38">
+        <v>0.9999705140710795</v>
+      </c>
+      <c r="E38">
+        <v>-0.007235987785451514</v>
+      </c>
+      <c r="F38">
+        <v>-0.003492171981308685</v>
+      </c>
+      <c r="G38">
+        <v>7.434895170536075e-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>313.78993999116415</v>
+      </c>
+      <c r="B39">
+        <v>184.37119159887536</v>
+      </c>
+      <c r="C39">
+        <v>29.982598637740285</v>
+      </c>
+      <c r="D39">
+        <v>0.9999677217763097</v>
+      </c>
+      <c r="E39">
+        <v>-0.003022614768482926</v>
+      </c>
+      <c r="F39">
+        <v>-0.0077557872376147795</v>
+      </c>
+      <c r="G39">
+        <v>-1.3012088745570703e-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>315.8394325003476</v>
+      </c>
+      <c r="B40">
+        <v>182.9660612711069</v>
+      </c>
+      <c r="C40">
+        <v>29.981639807944042</v>
+      </c>
+      <c r="D40">
+        <v>0.9999728684464514</v>
+      </c>
+      <c r="E40">
+        <v>-0.004357369521657447</v>
+      </c>
+      <c r="F40">
+        <v>-0.00636751514905229</v>
+      </c>
+      <c r="G40">
+        <v>4.809814705920527e-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>318.0307659357216</v>
+      </c>
+      <c r="B41">
+        <v>181.80624322867487</v>
+      </c>
+      <c r="C41">
+        <v>29.980094706676763</v>
+      </c>
+      <c r="D41">
+        <v>0.9999615955507528</v>
+      </c>
+      <c r="E41">
+        <v>-0.0039873731251111495</v>
+      </c>
+      <c r="F41">
+        <v>-0.007537934301543749</v>
+      </c>
+      <c r="G41">
+        <v>-5.136132088558423e-5</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States3.xlsx
+++ b/src/Quadrotor_States3.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,922 +428,1842 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>260.5965519240786</v>
+        <v>229.35280082530969</v>
       </c>
       <c r="B2">
-        <v>249.5524805640067</v>
+        <v>215.64722379701044</v>
       </c>
       <c r="C2">
-        <v>12.837168401305412</v>
+        <v>12.736076543178228</v>
       </c>
       <c r="D2">
-        <v>0.9999994514042762</v>
+        <v>0.9999974179231637</v>
       </c>
       <c r="E2">
-        <v>-0.0006908241124870175</v>
+        <v>0.0012438342985937984</v>
       </c>
       <c r="F2">
-        <v>-0.0009377302619536576</v>
+        <v>0.0012843731670429345</v>
       </c>
       <c r="G2">
-        <v>-0.00018291728382624346</v>
+        <v>0.0004198324721261949</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>262.41098188030884</v>
+        <v>227.64146659509422</v>
       </c>
       <c r="B3">
-        <v>249.64725440799737</v>
+        <v>215.04702962751085</v>
       </c>
       <c r="C3">
-        <v>15.996583635684564</v>
+        <v>16.192398845425803</v>
       </c>
       <c r="D3">
-        <v>0.9999881703545126</v>
+        <v>0.9999865902763968</v>
       </c>
       <c r="E3">
-        <v>-0.0012479476902089858</v>
+        <v>-0.003872479934438944</v>
       </c>
       <c r="F3">
-        <v>-0.0049924458755774325</v>
+        <v>0.00393192943377602</v>
       </c>
       <c r="G3">
-        <v>-2.8484068986816527e-6</v>
+        <v>-1.2150367195069365e-5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>263.5503839770875</v>
+        <v>226.65290990447411</v>
       </c>
       <c r="B4">
-        <v>248.49777748173298</v>
+        <v>214.58634592565852</v>
       </c>
       <c r="C4">
-        <v>18.71689254478018</v>
+        <v>19.742177732748345</v>
       </c>
       <c r="D4">
-        <v>0.9999854297532947</v>
+        <v>0.9999961202642502</v>
       </c>
       <c r="E4">
-        <v>-0.0040309418438925744</v>
+        <v>0.0006649615102227596</v>
       </c>
       <c r="F4">
-        <v>-0.00399647186126986</v>
+        <v>-0.000740659308575442</v>
       </c>
       <c r="G4">
-        <v>-4.580486563680205e-6</v>
+        <v>0.0006863791920856421</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>264.4775976591494</v>
+        <v>225.79831593075363</v>
       </c>
       <c r="B5">
-        <v>247.05193199073832</v>
+        <v>214.17111793520985</v>
       </c>
       <c r="C5">
-        <v>21.320856909025245</v>
+        <v>23.49697352167182</v>
       </c>
       <c r="D5">
-        <v>0.9999836377168337</v>
+        <v>1.000002470460218</v>
       </c>
       <c r="E5">
-        <v>-0.005046321120888739</v>
+        <v>0.0013959319625794333</v>
       </c>
       <c r="F5">
-        <v>-0.003237186593187563</v>
+        <v>-0.001476829635594745</v>
       </c>
       <c r="G5">
-        <v>-5.870856408052514e-6</v>
+        <v>-0.00010911391662937296</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>265.2613744284772</v>
+        <v>224.1336161429151</v>
       </c>
       <c r="B6">
-        <v>245.1364998814298</v>
+        <v>214.02861975033525</v>
       </c>
       <c r="C6">
-        <v>23.37683083659497</v>
+        <v>26.766864852657875</v>
       </c>
       <c r="D6">
-        <v>0.9999764812732775</v>
+        <v>0.9999921584812815</v>
       </c>
       <c r="E6">
-        <v>-0.006588929784100208</v>
+        <v>0.00016082464742053705</v>
       </c>
       <c r="F6">
-        <v>-0.002697856969210917</v>
+        <v>0.0031439546273878028</v>
       </c>
       <c r="G6">
-        <v>-1.1978708675190264e-5</v>
+        <v>-0.00017834944810377014</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>265.7263825809013</v>
+        <v>221.53313909923958</v>
       </c>
       <c r="B7">
-        <v>242.90590626933906</v>
+        <v>214.43836224484826</v>
       </c>
       <c r="C7">
-        <v>24.927580669500315</v>
+        <v>28.28138245692367</v>
       </c>
       <c r="D7">
-        <v>0.9999717365900501</v>
+        <v>0.9999838148695159</v>
       </c>
       <c r="E7">
-        <v>-0.007603356060557549</v>
+        <v>0.0020262848640637565</v>
       </c>
       <c r="F7">
-        <v>-0.001587385376149779</v>
+        <v>0.005770926492828375</v>
       </c>
       <c r="G7">
-        <v>-1.922558926466423e-5</v>
+        <v>-3.4709370951567423e-6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>266.96546078307216</v>
+        <v>218.91332092848637</v>
       </c>
       <c r="B8">
-        <v>240.8776850926732</v>
+        <v>213.28297879181812</v>
       </c>
       <c r="C8">
-        <v>26.1268118555416</v>
+        <v>29.018911347597783</v>
       </c>
       <c r="D8">
-        <v>0.9999694720953223</v>
+        <v>0.9999840931646016</v>
       </c>
       <c r="E8">
-        <v>-0.00688712679341291</v>
+        <v>-0.003601325137678615</v>
       </c>
       <c r="F8">
-        <v>-0.004210504255040602</v>
+        <v>0.00477404965663379</v>
       </c>
       <c r="G8">
-        <v>-2.0792932368281814e-5</v>
+        <v>-1.5016460991167377e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>268.32800701667014</v>
+        <v>216.33732807048366</v>
       </c>
       <c r="B9">
-        <v>238.86337463813115</v>
+        <v>214.60569828969878</v>
       </c>
       <c r="C9">
-        <v>27.04434896952862</v>
+        <v>29.417002724974015</v>
       </c>
       <c r="D9">
-        <v>0.9999682505062055</v>
+        <v>0.999980537958104</v>
       </c>
       <c r="E9">
-        <v>-0.006816881792151111</v>
+        <v>0.0055420772075458775</v>
       </c>
       <c r="F9">
-        <v>-0.00461465654603294</v>
+        <v>0.0035916932865825693</v>
       </c>
       <c r="G9">
-        <v>-2.327813244084437e-5</v>
+        <v>3.770745175524861e-6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>269.31990965374433</v>
+        <v>213.34496012091694</v>
       </c>
       <c r="B10">
-        <v>236.61382594029342</v>
+        <v>215.47075208410985</v>
       </c>
       <c r="C10">
-        <v>27.76877592978448</v>
+        <v>29.617629035419487</v>
       </c>
       <c r="D10">
-        <v>0.999967708884153</v>
+        <v>0.9999888375787019</v>
       </c>
       <c r="E10">
-        <v>-0.007590608103607351</v>
+        <v>0.0027793865304453214</v>
       </c>
       <c r="F10">
-        <v>-0.0033504964165266857</v>
+        <v>0.004243540376561311</v>
       </c>
       <c r="G10">
-        <v>-2.815545386355875e-5</v>
+        <v>-3.434348754136628e-6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>270.9883816912301</v>
+        <v>210.25264609040218</v>
       </c>
       <c r="B11">
-        <v>234.78440058109652</v>
+        <v>216.43674913633686</v>
       </c>
       <c r="C11">
-        <v>28.31175683651362</v>
+        <v>29.718166041138836</v>
       </c>
       <c r="D11">
-        <v>0.9999674235619873</v>
+        <v>0.9999916050741771</v>
       </c>
       <c r="E11">
-        <v>-0.006166776158920512</v>
+        <v>0.00251562516103172</v>
       </c>
       <c r="F11">
-        <v>-0.005628484627028303</v>
+        <v>0.0036530250696022734</v>
       </c>
       <c r="G11">
-        <v>-2.4307884578172738e-5</v>
+        <v>-3.1163602927005965e-6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>272.9921010984049</v>
+        <v>207.52999022897882</v>
       </c>
       <c r="B12">
-        <v>233.31901459119373</v>
+        <v>214.94519389157188</v>
       </c>
       <c r="C12">
-        <v>28.714183703899895</v>
+        <v>29.79328324936437</v>
       </c>
       <c r="D12">
-        <v>0.9999659511991206</v>
+        <v>0.9999804638872288</v>
       </c>
       <c r="E12">
-        <v>-0.004944703631385123</v>
+        <v>-0.006399420578328687</v>
       </c>
       <c r="F12">
-        <v>-0.006765104560393023</v>
+        <v>0.0014774202050315008</v>
       </c>
       <c r="G12">
-        <v>-2.195375990127413e-5</v>
+        <v>-1.988981742095211e-5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>274.8890199919067</v>
+        <v>205.20666688897836</v>
       </c>
       <c r="B13">
-        <v>231.71311157486238</v>
+        <v>212.895745018073</v>
       </c>
       <c r="C13">
-        <v>29.0316321884279</v>
+        <v>29.842575083866716</v>
       </c>
       <c r="D13">
-        <v>0.9999659584832121</v>
+        <v>0.9999791180776982</v>
       </c>
       <c r="E13">
-        <v>-0.005411843724275475</v>
+        <v>-0.006779329120747744</v>
       </c>
       <c r="F13">
-        <v>-0.006396450314566776</v>
+        <v>-0.00021244248371673778</v>
       </c>
       <c r="G13">
-        <v>-2.3152210693573094e-5</v>
+        <v>-2.1660553120764932e-5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>276.59741650187664</v>
+        <v>203.24556910794107</v>
       </c>
       <c r="B14">
-        <v>229.90296311657204</v>
+        <v>210.46178035450126</v>
       </c>
       <c r="C14">
-        <v>29.269213603623164</v>
+        <v>29.86933822517161</v>
       </c>
       <c r="D14">
-        <v>0.9999673961723269</v>
+        <v>0.9999800041660373</v>
       </c>
       <c r="E14">
-        <v>-0.006081624276896686</v>
+        <v>-0.006504992161067055</v>
       </c>
       <c r="F14">
-        <v>-0.005744509577051656</v>
+        <v>-0.0013842733615538978</v>
       </c>
       <c r="G14">
-        <v>-2.6294776460467566e-5</v>
+        <v>-1.9428683011435147e-5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>278.6415130638629</v>
+        <v>200.57051357380413</v>
       </c>
       <c r="B15">
-        <v>228.48621487690005</v>
+        <v>208.5493217757595</v>
       </c>
       <c r="C15">
-        <v>29.458457908271313</v>
+        <v>29.863651793130785</v>
       </c>
       <c r="D15">
-        <v>0.999966055503128</v>
+        <v>0.9999924422895945</v>
       </c>
       <c r="E15">
-        <v>-0.004765360630033439</v>
+        <v>-0.0034833561918445836</v>
       </c>
       <c r="F15">
-        <v>-0.0068796996775600085</v>
+        <v>0.0015320427304681764</v>
       </c>
       <c r="G15">
-        <v>-2.2840794256459794e-5</v>
+        <v>0.0008144958260885853</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>280.2136447750583</v>
+        <v>197.94821200243604</v>
       </c>
       <c r="B16">
-        <v>226.5566293084541</v>
+        <v>206.4709260510374</v>
       </c>
       <c r="C16">
-        <v>29.594968010417862</v>
+        <v>29.844858676357138</v>
       </c>
       <c r="D16">
-        <v>0.9999675097737849</v>
+        <v>0.9999943481748429</v>
       </c>
       <c r="E16">
-        <v>-0.006474637371180277</v>
+        <v>-0.0037023784174446865</v>
       </c>
       <c r="F16">
-        <v>-0.005279943700629888</v>
+        <v>0.0010875801612254714</v>
       </c>
       <c r="G16">
-        <v>-2.8747970499607416e-5</v>
+        <v>8.860072135680934e-5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>281.719744822449</v>
+        <v>195.14910787371417</v>
       </c>
       <c r="B17">
-        <v>224.57564783794294</v>
+        <v>204.5260323535158</v>
       </c>
       <c r="C17">
-        <v>29.700370260954</v>
+        <v>29.82601052354375</v>
       </c>
       <c r="D17">
-        <v>0.9999675566140395</v>
+        <v>1.000000302189513</v>
       </c>
       <c r="E17">
-        <v>-0.006644179880499525</v>
+        <v>0.00017095753285599897</v>
       </c>
       <c r="F17">
-        <v>-0.005056130007594632</v>
+        <v>-7.809233687259136e-5</v>
       </c>
       <c r="G17">
-        <v>-2.9785397565666125e-5</v>
+        <v>-0.0003529420615622618</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>283.75774581017214</v>
+        <v>193.11182555428377</v>
       </c>
       <c r="B18">
-        <v>223.15243902046936</v>
+        <v>201.7291943558731</v>
       </c>
       <c r="C18">
-        <v>29.77976931470149</v>
+        <v>29.82564908762868</v>
       </c>
       <c r="D18">
-        <v>0.9999662189530266</v>
+        <v>0.9999901255758228</v>
       </c>
       <c r="E18">
-        <v>-0.0047793323526748345</v>
+        <v>-0.00448922000941004</v>
       </c>
       <c r="F18">
-        <v>-0.006848214852061109</v>
+        <v>-0.001611715810999153</v>
       </c>
       <c r="G18">
-        <v>-2.3394562932790267e-5</v>
+        <v>-6.577738355197034e-6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>285.82633063155765</v>
+        <v>190.36653389575358</v>
       </c>
       <c r="B19">
-        <v>221.7748994347012</v>
+        <v>199.5840670866509</v>
       </c>
       <c r="C19">
-        <v>29.840760397493547</v>
+        <v>29.82124194394545</v>
       </c>
       <c r="D19">
-        <v>0.9999662535225518</v>
+        <v>1.0000052189735769</v>
       </c>
       <c r="E19">
-        <v>-0.004624700028299626</v>
+        <v>0.0016501692331832014</v>
       </c>
       <c r="F19">
-        <v>-0.006949075885064904</v>
+        <v>-0.0016810396188825755</v>
       </c>
       <c r="G19">
-        <v>-2.3229001878171003e-5</v>
+        <v>-0.0004343787651689258</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>287.9975885982919</v>
+        <v>187.37072914502093</v>
       </c>
       <c r="B20">
-        <v>220.56653766899336</v>
+        <v>197.6841715411019</v>
       </c>
       <c r="C20">
-        <v>29.886682821546373</v>
+        <v>29.812776222124363</v>
       </c>
       <c r="D20">
-        <v>0.9999662832916999</v>
+        <v>0.999999666617775</v>
       </c>
       <c r="E20">
-        <v>-0.004055686985141381</v>
+        <v>5.8023916279265207e-5</v>
       </c>
       <c r="F20">
-        <v>-0.007292063733932816</v>
+        <v>-0.001600288128679358</v>
       </c>
       <c r="G20">
-        <v>-2.239440942368385e-5</v>
+        <v>2.8806553036278825e-5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>290.1683885851804</v>
+        <v>184.6891993347267</v>
       </c>
       <c r="B21">
-        <v>219.3584332849427</v>
+        <v>195.26945442512832</v>
       </c>
       <c r="C21">
-        <v>29.916156322996674</v>
+        <v>29.807214244990774</v>
       </c>
       <c r="D21">
-        <v>0.9999663200363398</v>
+        <v>1.0000012489604606</v>
       </c>
       <c r="E21">
-        <v>-0.004053665858808189</v>
+        <v>0.00031976777028589913</v>
       </c>
       <c r="F21">
-        <v>-0.007288468258100647</v>
+        <v>-6.39986822457592e-5</v>
       </c>
       <c r="G21">
-        <v>-2.2457451857202478e-5</v>
+        <v>-0.00043113091020404793</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>291.9654952948279</v>
+        <v>182.73181683385022</v>
       </c>
       <c r="B22">
-        <v>217.63982212386804</v>
+        <v>192.27350074939605</v>
       </c>
       <c r="C22">
-        <v>29.9454458703596</v>
+        <v>29.818670667626318</v>
       </c>
       <c r="D22">
-        <v>0.999967699168312</v>
+        <v>0.9999893540599597</v>
       </c>
       <c r="E22">
-        <v>-0.0057616651411645115</v>
+        <v>-0.0036803550648231197</v>
       </c>
       <c r="F22">
-        <v>-0.006029970490112419</v>
+        <v>-0.0024196518627947333</v>
       </c>
       <c r="G22">
-        <v>-2.638288853458033e-5</v>
+        <v>0.0001473472955388086</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>293.29948046749723</v>
+        <v>181.09250007311448</v>
       </c>
       <c r="B23">
-        <v>215.54117857715173</v>
+        <v>189.05001214826711</v>
       </c>
       <c r="C23">
-        <v>29.987386874786186</v>
+        <v>29.822285357899723</v>
       </c>
       <c r="D23">
-        <v>0.9999677206608915</v>
+        <v>0.9999913208786061</v>
       </c>
       <c r="E23">
-        <v>-0.007007597287445246</v>
+        <v>-0.00345590429671316</v>
       </c>
       <c r="F23">
-        <v>-0.00445931492959184</v>
+        <v>-0.0028684378103236976</v>
       </c>
       <c r="G23">
-        <v>-2.6120021752842096e-5</v>
+        <v>-5.144085693190508e-6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>294.63199868821727</v>
+        <v>178.88930970005552</v>
       </c>
       <c r="B24">
-        <v>213.44484299980112</v>
+        <v>186.11049379799212</v>
       </c>
       <c r="C24">
-        <v>29.975151267300145</v>
+        <v>29.818178047221025</v>
       </c>
       <c r="D24">
-        <v>0.9999678010517953</v>
+        <v>1.0000015991089142</v>
       </c>
       <c r="E24">
-        <v>-0.006962199665156439</v>
+        <v>0.000610634962684715</v>
       </c>
       <c r="F24">
-        <v>-0.004430755208630048</v>
+        <v>9.052474990644566e-5</v>
       </c>
       <c r="G24">
-        <v>-1.4020637502243951e-5</v>
+        <v>-0.0008309695246870666</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>294.69544149380835</v>
+        <v>176.0709245672353</v>
       </c>
       <c r="B25">
-        <v>210.95394800582656</v>
+        <v>183.7429356120788</v>
       </c>
       <c r="C25">
-        <v>29.98288750273063</v>
+        <v>29.813694106584585</v>
       </c>
       <c r="D25">
-        <v>0.999970585217222</v>
+        <v>0.9999974076185532</v>
       </c>
       <c r="E25">
-        <v>-0.008266207328820467</v>
+        <v>-0.000525013812688205</v>
       </c>
       <c r="F25">
-        <v>-0.00023131792953329643</v>
+        <v>-0.0013526360301571007</v>
       </c>
       <c r="G25">
-        <v>0.00017180509169727033</v>
+        <v>-0.00188193125178185</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>295.5784191374861</v>
+        <v>173.7839205388314</v>
       </c>
       <c r="B26">
-        <v>208.63116664023374</v>
+        <v>180.79673288918784</v>
       </c>
       <c r="C26">
-        <v>29.98173510799038</v>
+        <v>29.805697952201673</v>
       </c>
       <c r="D26">
-        <v>0.9999728629411198</v>
+        <v>1.0000018696505273</v>
       </c>
       <c r="E26">
-        <v>-0.0072080738123381045</v>
+        <v>0.0008910792410290194</v>
       </c>
       <c r="F26">
-        <v>-0.0027483070234104504</v>
+        <v>0.00022089443852339703</v>
       </c>
       <c r="G26">
-        <v>5.063933101208396e-5</v>
+        <v>-0.001712430604177254</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>297.4881966568776</v>
+        <v>172.44009746337863</v>
       </c>
       <c r="B27">
-        <v>207.0495555678231</v>
+        <v>177.36307211498269</v>
       </c>
       <c r="C27">
-        <v>29.977909687368555</v>
+        <v>29.81524304207536</v>
       </c>
       <c r="D27">
-        <v>0.9999615380963076</v>
+        <v>0.9999911920989447</v>
       </c>
       <c r="E27">
-        <v>-0.00546292990536387</v>
+        <v>-0.002824062448227742</v>
       </c>
       <c r="F27">
-        <v>-0.0066039882193581105</v>
+        <v>-0.003532352010936752</v>
       </c>
       <c r="G27">
-        <v>-4.379017835954133e-5</v>
+        <v>-4.974143078312941e-6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>299.75645774324954</v>
+        <v>170.14233516898017</v>
       </c>
       <c r="B28">
-        <v>206.03408885415323</v>
+        <v>174.6182456628214</v>
       </c>
       <c r="C28">
-        <v>29.982333057909184</v>
+        <v>29.828113968792515</v>
       </c>
       <c r="D28">
-        <v>0.9999704440311828</v>
+        <v>1.000000683723838</v>
       </c>
       <c r="E28">
-        <v>-0.0031833208936855027</v>
+        <v>-0.00038763752833788205</v>
       </c>
       <c r="F28">
-        <v>-0.0071439068196651875</v>
+        <v>-0.0010461647586704336</v>
       </c>
       <c r="G28">
-        <v>-0.0002548693767884465</v>
+        <v>-3.6681991373961277e-6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>301.53157552967696</v>
+        <v>167.9151311060349</v>
       </c>
       <c r="B29">
-        <v>204.2952556722207</v>
+        <v>171.81582241290303</v>
       </c>
       <c r="C29">
-        <v>29.981027316411094</v>
+        <v>29.832829353145275</v>
       </c>
       <c r="D29">
-        <v>0.9999728640498535</v>
+        <v>1.0000004811120633</v>
       </c>
       <c r="E29">
-        <v>-0.005390000030977961</v>
+        <v>9.49917868701383e-5</v>
       </c>
       <c r="F29">
-        <v>-0.005513071930893558</v>
+        <v>-0.0007230435958583966</v>
       </c>
       <c r="G29">
-        <v>5.0191392627607436e-5</v>
+        <v>3.5394960401630644e-9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>303.5960370724305</v>
+        <v>165.6022062649031</v>
       </c>
       <c r="B30">
-        <v>202.92184424750636</v>
+        <v>169.0748532356716</v>
       </c>
       <c r="C30">
-        <v>29.980396021586934</v>
+        <v>29.832627998413805</v>
       </c>
       <c r="D30">
-        <v>0.9999615259869913</v>
+        <v>1.0000006279259959</v>
       </c>
       <c r="E30">
-        <v>-0.004734504825308951</v>
+        <v>-0.00039884125827495913</v>
       </c>
       <c r="F30">
-        <v>-0.0071229283746689805</v>
+        <v>-0.0009728067245755201</v>
       </c>
       <c r="G30">
-        <v>-4.8204186559942544e-5</v>
+        <v>-2.8995348200192874e-6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>305.3907247158589</v>
+        <v>163.21423446661598</v>
       </c>
       <c r="B31">
-        <v>201.21038458289868</v>
+        <v>166.42781407877706</v>
       </c>
       <c r="C31">
-        <v>29.979742485063944</v>
+        <v>29.82846361488879</v>
       </c>
       <c r="D31">
-        <v>0.9999616760211102</v>
+        <v>1.0000008091960884</v>
       </c>
       <c r="E31">
-        <v>-0.005909663922518883</v>
+        <v>-0.0008920306744433506</v>
       </c>
       <c r="F31">
-        <v>-0.006205317033953187</v>
+        <v>-0.0011700980749616418</v>
       </c>
       <c r="G31">
-        <v>-3.966679067082042e-5</v>
+        <v>1.3818117574897771e-6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>306.8200426522116</v>
+        <v>160.75591961440142</v>
       </c>
       <c r="B32">
-        <v>199.18324875868362</v>
+        <v>163.93750969470813</v>
       </c>
       <c r="C32">
-        <v>29.98075260700197</v>
+        <v>29.82138591087558</v>
       </c>
       <c r="D32">
-        <v>0.9999615436592342</v>
+        <v>1.0000007026589466</v>
       </c>
       <c r="E32">
-        <v>-0.007041427547090622</v>
+        <v>-0.0019130309279778805</v>
       </c>
       <c r="F32">
-        <v>-0.004974072223077974</v>
+        <v>-0.0015113284530761527</v>
       </c>
       <c r="G32">
-        <v>-3.3017428705556046e-5</v>
+        <v>-0.0002490361277764483</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>307.87294688442256</v>
+        <v>157.692724677508</v>
       </c>
       <c r="B33">
-        <v>196.93717221614008</v>
+        <v>161.8416149706077</v>
       </c>
       <c r="C33">
-        <v>29.979884102890626</v>
+        <v>29.823329367777017</v>
       </c>
       <c r="D33">
-        <v>0.9999615644491835</v>
+        <v>0.999994006351743</v>
       </c>
       <c r="E33">
-        <v>-0.007829744241310898</v>
+        <v>0.002308534440383434</v>
       </c>
       <c r="F33">
-        <v>-0.0036800072230609936</v>
+        <v>0.003024431972558397</v>
       </c>
       <c r="G33">
-        <v>-2.6765733719850964e-5</v>
+        <v>0.00019399857164515991</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>307.8940046678925</v>
+        <v>154.87008903499498</v>
       </c>
       <c r="B34">
-        <v>194.4558801520647</v>
+        <v>159.35066910665742</v>
       </c>
       <c r="C34">
-        <v>29.980739183786326</v>
+        <v>29.811176302305917</v>
       </c>
       <c r="D34">
-        <v>0.9999616572415556</v>
+        <v>1.0000012253249297</v>
       </c>
       <c r="E34">
-        <v>-0.008710657293223087</v>
+        <v>-0.0004519597554515018</v>
       </c>
       <c r="F34">
-        <v>-8.37597910134891e-5</v>
+        <v>-0.002249740714316628</v>
       </c>
       <c r="G34">
-        <v>-1.5988052894125264e-5</v>
+        <v>-1.4769944633452115e-5</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>308.2516568983188</v>
+        <v>152.7932980866669</v>
       </c>
       <c r="B35">
-        <v>192.0006788767855</v>
+        <v>156.21553301853388</v>
       </c>
       <c r="C35">
-        <v>29.979971946737617</v>
+        <v>29.811915623320715</v>
       </c>
       <c r="D35">
-        <v>0.9999615844684142</v>
+        <v>0.9999993624468811</v>
       </c>
       <c r="E35">
-        <v>-0.008606438216254775</v>
+        <v>-0.0007205870077007242</v>
       </c>
       <c r="F35">
-        <v>-0.0012635053097584876</v>
+        <v>-0.0005951884669181909</v>
       </c>
       <c r="G35">
-        <v>-1.8151464425566584e-5</v>
+        <v>-0.0002403172294870182</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>309.3232759505613</v>
+        <v>151.07955727632745</v>
       </c>
       <c r="B36">
-        <v>189.76349323782898</v>
+        <v>152.88371009310802</v>
       </c>
       <c r="C36">
-        <v>29.97811152007237</v>
+        <v>29.815631454298565</v>
       </c>
       <c r="D36">
-        <v>0.9999616290027458</v>
+        <v>0.9999939823755333</v>
       </c>
       <c r="E36">
-        <v>-0.007790725491076994</v>
+        <v>-0.0025628018572404717</v>
       </c>
       <c r="F36">
-        <v>-0.0037414406498008017</v>
+        <v>-0.0029212477994768112</v>
       </c>
       <c r="G36">
-        <v>-2.7266038702868475e-5</v>
+        <v>-0.00021658985661441218</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>310.39845254431657</v>
+        <v>149.94303510139335</v>
       </c>
       <c r="B37">
-        <v>187.51893669828388</v>
+        <v>149.3460086578044</v>
       </c>
       <c r="C37">
-        <v>29.974643565729796</v>
+        <v>29.821172946078622</v>
       </c>
       <c r="D37">
-        <v>0.9999705338694949</v>
+        <v>0.9999906377687767</v>
       </c>
       <c r="E37">
-        <v>-0.007235478345071132</v>
+        <v>-0.002464826604632271</v>
       </c>
       <c r="F37">
-        <v>-0.0034917500246730423</v>
+        <v>-0.003947154862440647</v>
       </c>
       <c r="G37">
-        <v>7.464197945594886e-5</v>
+        <v>-5.166331427526923e-6</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>311.4736027762337</v>
+        <v>148.08632768120208</v>
       </c>
       <c r="B38">
-        <v>185.2744146145153</v>
+        <v>146.03459979128016</v>
       </c>
       <c r="C38">
-        <v>29.967478040075623</v>
+        <v>29.815464561684227</v>
       </c>
       <c r="D38">
-        <v>0.9999705140710795</v>
+        <v>1.0000019101291748</v>
       </c>
       <c r="E38">
-        <v>-0.007235987785451514</v>
+        <v>0.001001259938565988</v>
       </c>
       <c r="F38">
-        <v>-0.003492171981308685</v>
+        <v>0.0004937573819113848</v>
       </c>
       <c r="G38">
-        <v>7.434895170536075e-5</v>
+        <v>-0.0007464661737358794</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>313.78993999116415</v>
+        <v>145.6931375769733</v>
       </c>
       <c r="B39">
-        <v>184.37119159887536</v>
+        <v>143.0898514982644</v>
       </c>
       <c r="C39">
-        <v>29.982598637740285</v>
+        <v>29.81037668732164</v>
       </c>
       <c r="D39">
-        <v>0.9999677217763097</v>
+        <v>1.0000002649811925</v>
       </c>
       <c r="E39">
-        <v>-0.003022614768482926</v>
+        <v>-0.0008559505958128219</v>
       </c>
       <c r="F39">
-        <v>-0.0077557872376147795</v>
+        <v>-0.0028827805959120156</v>
       </c>
       <c r="G39">
-        <v>-1.3012088745570703e-5</v>
+        <v>-0.00045264933415526786</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>315.8394325003476</v>
+        <v>142.5677710269953</v>
       </c>
       <c r="B40">
-        <v>182.9660612711069</v>
+        <v>141.10618412638115</v>
       </c>
       <c r="C40">
-        <v>29.981639807944042</v>
+        <v>29.821582994128576</v>
       </c>
       <c r="D40">
-        <v>0.9999728684464514</v>
+        <v>0.9999886795589332</v>
       </c>
       <c r="E40">
-        <v>-0.004357369521657447</v>
+        <v>0.00360828848605516</v>
       </c>
       <c r="F40">
-        <v>-0.00636751514905229</v>
+        <v>0.003605774219558111</v>
       </c>
       <c r="G40">
-        <v>4.809814705920527e-5</v>
+        <v>-2.764459858972706e-6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>318.0307659357216</v>
+        <v>139.6536655924048</v>
       </c>
       <c r="B41">
-        <v>181.80624322867487</v>
+        <v>138.71047818155904</v>
       </c>
       <c r="C41">
-        <v>29.980094706676763</v>
+        <v>29.824555924816494</v>
       </c>
       <c r="D41">
-        <v>0.9999615955507528</v>
+        <v>0.9999991830826535</v>
       </c>
       <c r="E41">
-        <v>-0.0039873731251111495</v>
+        <v>-0.00018280641665864865</v>
       </c>
       <c r="F41">
-        <v>-0.007537934301543749</v>
+        <v>-8.259329315665179e-5</v>
       </c>
       <c r="G41">
-        <v>-5.136132088558423e-5</v>
+        <v>-0.00013865722045903548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>136.63956582995687</v>
+      </c>
+      <c r="B42">
+        <v>136.4195807995539</v>
+      </c>
+      <c r="C42">
+        <v>29.818376207869598</v>
+      </c>
+      <c r="D42">
+        <v>0.9999926634053189</v>
+      </c>
+      <c r="E42">
+        <v>-0.0012380453737845735</v>
+      </c>
+      <c r="F42">
+        <v>-0.0009294522541629374</v>
+      </c>
+      <c r="G42">
+        <v>-0.0018369993333075673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>134.01099279903508</v>
+      </c>
+      <c r="B43">
+        <v>133.6218958088336</v>
+      </c>
+      <c r="C43">
+        <v>29.80567814746622</v>
+      </c>
+      <c r="D43">
+        <v>1.0000009389023197</v>
+      </c>
+      <c r="E43">
+        <v>0.0011186951957765654</v>
+      </c>
+      <c r="F43">
+        <v>-0.00023807038251827295</v>
+      </c>
+      <c r="G43">
+        <v>-1.6876336649983266e-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>131.72257942575874</v>
+      </c>
+      <c r="B44">
+        <v>130.54883479177042</v>
+      </c>
+      <c r="C44">
+        <v>29.805460929940182</v>
+      </c>
+      <c r="D44">
+        <v>1.0000015825718602</v>
+      </c>
+      <c r="E44">
+        <v>0.00022924335016420963</v>
+      </c>
+      <c r="F44">
+        <v>0.00018607724948962605</v>
+      </c>
+      <c r="G44">
+        <v>-0.0003077351426212949</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>129.01959621330167</v>
+      </c>
+      <c r="B45">
+        <v>127.78114095171574</v>
+      </c>
+      <c r="C45">
+        <v>29.79922219260311</v>
+      </c>
+      <c r="D45">
+        <v>1.0000006913565351</v>
+      </c>
+      <c r="E45">
+        <v>0.00015050297437883557</v>
+      </c>
+      <c r="F45">
+        <v>-0.001047164454855381</v>
+      </c>
+      <c r="G45">
+        <v>-6.870289606646829e-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>125.83944684326345</v>
+      </c>
+      <c r="B46">
+        <v>125.68037765636709</v>
+      </c>
+      <c r="C46">
+        <v>29.81040715142156</v>
+      </c>
+      <c r="D46">
+        <v>0.9999905347006476</v>
+      </c>
+      <c r="E46">
+        <v>-0.00019318514231883566</v>
+      </c>
+      <c r="F46">
+        <v>0.0006178659378911252</v>
+      </c>
+      <c r="G46">
+        <v>-0.0021226392630584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>122.87004501741364</v>
+      </c>
+      <c r="B47">
+        <v>123.20482266649691</v>
+      </c>
+      <c r="C47">
+        <v>29.802690161401763</v>
+      </c>
+      <c r="D47">
+        <v>1.0000009653200659</v>
+      </c>
+      <c r="E47">
+        <v>-0.0008754866295688309</v>
+      </c>
+      <c r="F47">
+        <v>-0.0018296940267539539</v>
+      </c>
+      <c r="G47">
+        <v>-2.135921381214777e-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>119.82602667014106</v>
+      </c>
+      <c r="B48">
+        <v>120.81085037999486</v>
+      </c>
+      <c r="C48">
+        <v>29.80042835131818</v>
+      </c>
+      <c r="D48">
+        <v>1.0000007718002102</v>
+      </c>
+      <c r="E48">
+        <v>-0.0013175031539906007</v>
+      </c>
+      <c r="F48">
+        <v>-0.0020385145424378012</v>
+      </c>
+      <c r="G48">
+        <v>-0.00020412243023868617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>116.80075409103559</v>
+      </c>
+      <c r="B49">
+        <v>118.35454684929896</v>
+      </c>
+      <c r="C49">
+        <v>29.797324063831688</v>
+      </c>
+      <c r="D49">
+        <v>1.0000007953839025</v>
+      </c>
+      <c r="E49">
+        <v>-0.00047478368689841374</v>
+      </c>
+      <c r="F49">
+        <v>-0.0012305793447123204</v>
+      </c>
+      <c r="G49">
+        <v>-3.37328138545455e-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>114.13292470986998</v>
+      </c>
+      <c r="B50">
+        <v>115.51521362246751</v>
+      </c>
+      <c r="C50">
+        <v>29.79834237898993</v>
+      </c>
+      <c r="D50">
+        <v>1.000001711185371</v>
+      </c>
+      <c r="E50">
+        <v>0.0007785916641884105</v>
+      </c>
+      <c r="F50">
+        <v>0.0004983037639710484</v>
+      </c>
+      <c r="G50">
+        <v>-0.0006075434387882249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>110.97603968960999</v>
+      </c>
+      <c r="B51">
+        <v>113.24383108982046</v>
+      </c>
+      <c r="C51">
+        <v>29.800645134704894</v>
+      </c>
+      <c r="D51">
+        <v>0.9999998725721313</v>
+      </c>
+      <c r="E51">
+        <v>-0.0020734035426613036</v>
+      </c>
+      <c r="F51">
+        <v>-0.0020045799711209413</v>
+      </c>
+      <c r="G51">
+        <v>-9.032740517796752e-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>108.52649224479423</v>
+      </c>
+      <c r="B52">
+        <v>110.2354695807923</v>
+      </c>
+      <c r="C52">
+        <v>29.80360113550781</v>
+      </c>
+      <c r="D52">
+        <v>1.0000000534110578</v>
+      </c>
+      <c r="E52">
+        <v>-0.0004301037164504428</v>
+      </c>
+      <c r="F52">
+        <v>-0.0004102809733779961</v>
+      </c>
+      <c r="G52">
+        <v>-0.00017142524674255687</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>107.59238153258018</v>
+      </c>
+      <c r="B53">
+        <v>106.759302451151</v>
+      </c>
+      <c r="C53">
+        <v>29.836547731978</v>
+      </c>
+      <c r="D53">
+        <v>0.9999783182639193</v>
+      </c>
+      <c r="E53">
+        <v>-0.0028656234950970973</v>
+      </c>
+      <c r="F53">
+        <v>-0.006297462728100252</v>
+      </c>
+      <c r="G53">
+        <v>-1.2138804060218212e-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>106.79774665176463</v>
+      </c>
+      <c r="B54">
+        <v>103.20786350189096</v>
+      </c>
+      <c r="C54">
+        <v>29.85644691559712</v>
+      </c>
+      <c r="D54">
+        <v>0.9999847436399502</v>
+      </c>
+      <c r="E54">
+        <v>-0.0024609661783689158</v>
+      </c>
+      <c r="F54">
+        <v>-0.005319848638172471</v>
+      </c>
+      <c r="G54">
+        <v>-8.65547443576615e-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>106.61663295465166</v>
+      </c>
+      <c r="B55">
+        <v>99.65758561859398</v>
+      </c>
+      <c r="C55">
+        <v>29.870466329607897</v>
+      </c>
+      <c r="D55">
+        <v>0.9999815126573456</v>
+      </c>
+      <c r="E55">
+        <v>-0.0018759338886889063</v>
+      </c>
+      <c r="F55">
+        <v>-0.006138183543635302</v>
+      </c>
+      <c r="G55">
+        <v>-9.444951662336411e-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>106.61243391836115</v>
+      </c>
+      <c r="B56">
+        <v>96.06272911349217</v>
+      </c>
+      <c r="C56">
+        <v>29.87202178394093</v>
+      </c>
+      <c r="D56">
+        <v>0.9999862824866582</v>
+      </c>
+      <c r="E56">
+        <v>-0.0015994011836952791</v>
+      </c>
+      <c r="F56">
+        <v>-0.005338718196523973</v>
+      </c>
+      <c r="G56">
+        <v>-7.104071678745601e-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>108.07697918815809</v>
+      </c>
+      <c r="B57">
+        <v>93.26141859307961</v>
+      </c>
+      <c r="C57">
+        <v>29.91250608549557</v>
+      </c>
+      <c r="D57">
+        <v>0.999958500031067</v>
+      </c>
+      <c r="E57">
+        <v>0.0014601793097106944</v>
+      </c>
+      <c r="F57">
+        <v>-0.009008587695019239</v>
+      </c>
+      <c r="G57">
+        <v>-1.676434787593173e-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>109.42399273759867</v>
+      </c>
+      <c r="B58">
+        <v>90.14906182672225</v>
+      </c>
+      <c r="C58">
+        <v>29.992691021141546</v>
+      </c>
+      <c r="D58">
+        <v>0.9999809765614909</v>
+      </c>
+      <c r="E58">
+        <v>7.193366660224361e-5</v>
+      </c>
+      <c r="F58">
+        <v>-0.0064918431288719675</v>
+      </c>
+      <c r="G58">
+        <v>-7.880515852690146e-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>110.76725039773949</v>
+      </c>
+      <c r="B59">
+        <v>86.91437601160685</v>
+      </c>
+      <c r="C59">
+        <v>29.951426360343827</v>
+      </c>
+      <c r="D59">
+        <v>0.9999826786490823</v>
+      </c>
+      <c r="E59">
+        <v>-0.00041699213301181243</v>
+      </c>
+      <c r="F59">
+        <v>-0.005798332640113684</v>
+      </c>
+      <c r="G59">
+        <v>-4.59682111438799e-17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>111.8252234217734</v>
+      </c>
+      <c r="B60">
+        <v>83.50047902595139</v>
+      </c>
+      <c r="C60">
+        <v>29.995416937535843</v>
+      </c>
+      <c r="D60">
+        <v>0.9999955285177957</v>
+      </c>
+      <c r="E60">
+        <v>-0.0008164133190469359</v>
+      </c>
+      <c r="F60">
+        <v>-0.002541652415948282</v>
+      </c>
+      <c r="G60">
+        <v>-5.429005916875195e-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>114.02834153475064</v>
+      </c>
+      <c r="B61">
+        <v>80.8937015876193</v>
+      </c>
+      <c r="C61">
+        <v>29.961825831600347</v>
+      </c>
+      <c r="D61">
+        <v>0.9999706608126915</v>
+      </c>
+      <c r="E61">
+        <v>0.002389398972045275</v>
+      </c>
+      <c r="F61">
+        <v>-0.007118188239832502</v>
+      </c>
+      <c r="G61">
+        <v>-1.0593970596764386e-15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>116.02799426641769</v>
+      </c>
+      <c r="B62">
+        <v>77.97137620616894</v>
+      </c>
+      <c r="C62">
+        <v>29.915259519865895</v>
+      </c>
+      <c r="D62">
+        <v>0.9999901100362324</v>
+      </c>
+      <c r="E62">
+        <v>0.0007192141791515799</v>
+      </c>
+      <c r="F62">
+        <v>-0.006047571136525593</v>
+      </c>
+      <c r="G62">
+        <v>0.00023798036019289867</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>117.38667815916655</v>
+      </c>
+      <c r="B63">
+        <v>74.60405312258487</v>
+      </c>
+      <c r="C63">
+        <v>29.864373561929558</v>
+      </c>
+      <c r="D63">
+        <v>1.0000016100634017</v>
+      </c>
+      <c r="E63">
+        <v>0.00035516086548682347</v>
+      </c>
+      <c r="F63">
+        <v>0.00032614120700722094</v>
+      </c>
+      <c r="G63">
+        <v>-0.0001091991034565984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>118.7355522003216</v>
+      </c>
+      <c r="B64">
+        <v>71.19104197868151</v>
+      </c>
+      <c r="C64">
+        <v>29.83313993069754</v>
+      </c>
+      <c r="D64">
+        <v>1.000001645167751</v>
+      </c>
+      <c r="E64">
+        <v>0.0007464779046874857</v>
+      </c>
+      <c r="F64">
+        <v>0.0005470761424288184</v>
+      </c>
+      <c r="G64">
+        <v>-0.0004310753746344266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>121.00495366359878</v>
+      </c>
+      <c r="B65">
+        <v>68.35094655862078</v>
+      </c>
+      <c r="C65">
+        <v>29.831414993354517</v>
+      </c>
+      <c r="D65">
+        <v>0.9999907895164741</v>
+      </c>
+      <c r="E65">
+        <v>0.0015686318618562181</v>
+      </c>
+      <c r="F65">
+        <v>-0.005146245479681418</v>
+      </c>
+      <c r="G65">
+        <v>0.00034852399425562477</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>123.29912069750755</v>
+      </c>
+      <c r="B66">
+        <v>65.48003674749744</v>
+      </c>
+      <c r="C66">
+        <v>29.825407636478705</v>
+      </c>
+      <c r="D66">
+        <v>0.9999956956564878</v>
+      </c>
+      <c r="E66">
+        <v>0.0007748728683038935</v>
+      </c>
+      <c r="F66">
+        <v>-0.0030581207160269926</v>
+      </c>
+      <c r="G66">
+        <v>-1.765685422218641e-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>125.8332980344172</v>
+      </c>
+      <c r="B67">
+        <v>62.834853980487274</v>
+      </c>
+      <c r="C67">
+        <v>29.825855748459453</v>
+      </c>
+      <c r="D67">
+        <v>0.99999566670661</v>
+      </c>
+      <c r="E67">
+        <v>0.0021975560190028447</v>
+      </c>
+      <c r="F67">
+        <v>-0.0053219984110730815</v>
+      </c>
+      <c r="G67">
+        <v>0.0011368903129649198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>128.80990141243467</v>
+      </c>
+      <c r="B68">
+        <v>60.750108076837414</v>
+      </c>
+      <c r="C68">
+        <v>29.827894654355017</v>
+      </c>
+      <c r="D68">
+        <v>0.999989034579265</v>
+      </c>
+      <c r="E68">
+        <v>0.0030287175315954137</v>
+      </c>
+      <c r="F68">
+        <v>-0.003994998778287321</v>
+      </c>
+      <c r="G68">
+        <v>-3.3659083855101574e-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>132.07538973000362</v>
+      </c>
+      <c r="B69">
+        <v>59.500777459493165</v>
+      </c>
+      <c r="C69">
+        <v>29.851665443836918</v>
+      </c>
+      <c r="D69">
+        <v>0.9999811524906187</v>
+      </c>
+      <c r="E69">
+        <v>0.005103178731332373</v>
+      </c>
+      <c r="F69">
+        <v>-0.003984974806524203</v>
+      </c>
+      <c r="G69">
+        <v>-4.421925231381272e-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>135.4503005838299</v>
+      </c>
+      <c r="B70">
+        <v>58.711611136768276</v>
+      </c>
+      <c r="C70">
+        <v>29.87033976684219</v>
+      </c>
+      <c r="D70">
+        <v>0.9999813276745649</v>
+      </c>
+      <c r="E70">
+        <v>0.00546515356244695</v>
+      </c>
+      <c r="F70">
+        <v>-0.0034234224599011616</v>
+      </c>
+      <c r="G70">
+        <v>2.2556236921239286e-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>138.84998598971347</v>
+      </c>
+      <c r="B71">
+        <v>58.51984514170733</v>
+      </c>
+      <c r="C71">
+        <v>29.88451417537192</v>
+      </c>
+      <c r="D71">
+        <v>0.9999793537578454</v>
+      </c>
+      <c r="E71">
+        <v>0.006199035487192848</v>
+      </c>
+      <c r="F71">
+        <v>-0.0027045819662068703</v>
+      </c>
+      <c r="G71">
+        <v>2.6778421644236504e-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>141.74625809279027</v>
+      </c>
+      <c r="B72">
+        <v>59.58519648126421</v>
+      </c>
+      <c r="C72">
+        <v>29.921219280834865</v>
+      </c>
+      <c r="D72">
+        <v>0.9999625292874998</v>
+      </c>
+      <c r="E72">
+        <v>0.008915638918545814</v>
+      </c>
+      <c r="F72">
+        <v>-0.00037300439293245206</v>
+      </c>
+      <c r="G72">
+        <v>3.1165715090370724e-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>145.00151657884962</v>
+      </c>
+      <c r="B73">
+        <v>60.38393341359992</v>
+      </c>
+      <c r="C73">
+        <v>29.991862156204313</v>
+      </c>
+      <c r="D73">
+        <v>0.9999829069403037</v>
+      </c>
+      <c r="E73">
+        <v>0.0060137329821326295</v>
+      </c>
+      <c r="F73">
+        <v>-0.0015024306336245642</v>
+      </c>
+      <c r="G73">
+        <v>-2.0138427014060366e-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>147.35465054522788</v>
+      </c>
+      <c r="B74">
+        <v>62.31052795990009</v>
+      </c>
+      <c r="C74">
+        <v>29.960667716273914</v>
+      </c>
+      <c r="D74">
+        <v>0.9999457120906791</v>
+      </c>
+      <c r="E74">
+        <v>0.009820574180502629</v>
+      </c>
+      <c r="F74">
+        <v>0.0022190054099127604</v>
+      </c>
+      <c r="G74">
+        <v>4.1623407257009184e-16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>150.16248381172838</v>
+      </c>
+      <c r="B75">
+        <v>64.06785350945606</v>
+      </c>
+      <c r="C75">
+        <v>29.91843845354823</v>
+      </c>
+      <c r="D75">
+        <v>0.9999840185131508</v>
+      </c>
+      <c r="E75">
+        <v>0.005999704108501334</v>
+      </c>
+      <c r="F75">
+        <v>-6.0772666467475094e-5</v>
+      </c>
+      <c r="G75">
+        <v>5.104761195408575e-7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>153.17854047074374</v>
+      </c>
+      <c r="B76">
+        <v>65.60165922407148</v>
+      </c>
+      <c r="C76">
+        <v>30.000114633583056</v>
+      </c>
+      <c r="D76">
+        <v>0.9999899018649756</v>
+      </c>
+      <c r="E76">
+        <v>0.0036781249454662566</v>
+      </c>
+      <c r="F76">
+        <v>-0.0006820531316848509</v>
+      </c>
+      <c r="G76">
+        <v>-0.0005439277523845532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>156.06734643330995</v>
+      </c>
+      <c r="B77">
+        <v>67.54391707346059</v>
+      </c>
+      <c r="C77">
+        <v>29.942176321676964</v>
+      </c>
+      <c r="D77">
+        <v>0.9999915425136932</v>
+      </c>
+      <c r="E77">
+        <v>0.004441228651712134</v>
+      </c>
+      <c r="F77">
+        <v>-0.00015687091960267838</v>
+      </c>
+      <c r="G77">
+        <v>-6.297995582225872e-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>158.195710674512</v>
+      </c>
+      <c r="B78">
+        <v>70.15833102361267</v>
+      </c>
+      <c r="C78">
+        <v>29.99031144795661</v>
+      </c>
+      <c r="D78">
+        <v>0.9999832065673386</v>
+      </c>
+      <c r="E78">
+        <v>0.005644812003068336</v>
+      </c>
+      <c r="F78">
+        <v>0.0024636130470440548</v>
+      </c>
+      <c r="G78">
+        <v>-1.7430293185645694e-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>160.19586022183051</v>
+      </c>
+      <c r="B79">
+        <v>72.94540063311132</v>
+      </c>
+      <c r="C79">
+        <v>29.957101452042696</v>
+      </c>
+      <c r="D79">
+        <v>0.9999871056918336</v>
+      </c>
+      <c r="E79">
+        <v>0.0048969998006094485</v>
+      </c>
+      <c r="F79">
+        <v>0.002317173076938636</v>
+      </c>
+      <c r="G79">
+        <v>1.0140383556916874e-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>162.11592219930006</v>
+      </c>
+      <c r="B80">
+        <v>75.86896452278563</v>
+      </c>
+      <c r="C80">
+        <v>29.91088278291054</v>
+      </c>
+      <c r="D80">
+        <v>0.9999901890174955</v>
+      </c>
+      <c r="E80">
+        <v>0.0042909467686939404</v>
+      </c>
+      <c r="F80">
+        <v>0.0020838021995633433</v>
+      </c>
+      <c r="G80">
+        <v>-2.3686972184066035e-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>164.5810516279002</v>
+      </c>
+      <c r="B81">
+        <v>78.40427479291165</v>
+      </c>
+      <c r="C81">
+        <v>29.86888665077889</v>
+      </c>
+      <c r="D81">
+        <v>1.000000121844581</v>
+      </c>
+      <c r="E81">
+        <v>-0.001095769876338202</v>
+      </c>
+      <c r="F81">
+        <v>0.00016489200524086385</v>
+      </c>
+      <c r="G81">
+        <v>0.0016070822087385455</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States3.xlsx
+++ b/src/Quadrotor_States3.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,232 +428,2762 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>10.000251135406613</v>
+        <v>270.9567010848873</v>
       </c>
       <c r="B2">
-        <v>17.624837837224494</v>
+        <v>349.83968819343096</v>
       </c>
       <c r="C2">
-        <v>5.040742384815553</v>
+        <v>13.260635400954397</v>
       </c>
       <c r="D2">
-        <v>0.999994366602939</v>
+        <v>0.9999938390436139</v>
       </c>
       <c r="E2">
-        <v>-0.0033671966118646738</v>
+        <v>-0.0006540041413841249</v>
       </c>
       <c r="F2">
-        <v>-2.449496588696355e-6</v>
+        <v>-0.0035698726393021676</v>
       </c>
       <c r="G2">
-        <v>-8.619713753888301e-5</v>
+        <v>-7.698550338282451e-5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10.152448151271662</v>
+        <v>271.1390833074948</v>
       </c>
       <c r="B3">
-        <v>18.756014850075047</v>
+        <v>350.1196474962325</v>
       </c>
       <c r="C3">
-        <v>4.959871553370042</v>
+        <v>17.365519426972547</v>
       </c>
       <c r="D3">
-        <v>0.9999856823290136</v>
+        <v>1.0000007744364108</v>
       </c>
       <c r="E3">
-        <v>0.0013018855081521042</v>
+        <v>-0.0011178804950861792</v>
       </c>
       <c r="F3">
-        <v>0.0001573858453368207</v>
+        <v>-0.0009709997316969014</v>
       </c>
       <c r="G3">
-        <v>-0.005862944354852491</v>
+        <v>3.883610217057604e-6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10.739578816545762</v>
+        <v>272.01421477168367</v>
       </c>
       <c r="B4">
-        <v>17.718101973883023</v>
+        <v>350.25333762651064</v>
       </c>
       <c r="C4">
-        <v>4.684614618042604</v>
+        <v>21.138334005579594</v>
       </c>
       <c r="D4">
-        <v>0.9999816238450989</v>
+        <v>1.0000004558963693</v>
       </c>
       <c r="E4">
-        <v>0.0023821434338313617</v>
+        <v>4.49368687550489e-5</v>
       </c>
       <c r="F4">
-        <v>0.000928279052832059</v>
+        <v>-0.00021160576413915938</v>
       </c>
       <c r="G4">
-        <v>-0.0180054302295913</v>
+        <v>6.068769167927726e-5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>10.662862891675184</v>
+        <v>273.8039323457531</v>
       </c>
       <c r="B5">
-        <v>17.51397371948921</v>
+        <v>349.4865581762832</v>
       </c>
       <c r="C5">
-        <v>4.6250439318282535</v>
+        <v>23.989892263927395</v>
       </c>
       <c r="D5">
-        <v>1.0000065955281154</v>
+        <v>0.9999872456146977</v>
       </c>
       <c r="E5">
-        <v>5.613046258497765e-5</v>
+        <v>-0.0026588858792523772</v>
       </c>
       <c r="F5">
-        <v>-0.0002718478926069154</v>
+        <v>-0.004712536615578141</v>
       </c>
       <c r="G5">
-        <v>-0.011265720962920986</v>
+        <v>-9.255098968224089e-6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>10.820535873665957</v>
+        <v>275.4586937607684</v>
       </c>
       <c r="B6">
-        <v>17.07022945162511</v>
+        <v>347.79135816757906</v>
       </c>
       <c r="C6">
-        <v>4.595197956813106</v>
+        <v>26.07406718893482</v>
       </c>
       <c r="D6">
-        <v>1.0000505568138622</v>
+        <v>0.9999833455042813</v>
       </c>
       <c r="E6">
-        <v>-0.00028426996575184473</v>
+        <v>-0.005200596272337237</v>
       </c>
       <c r="F6">
-        <v>0.0006807291850941783</v>
+        <v>-0.0032447656665736467</v>
       </c>
       <c r="G6">
-        <v>0.00597436951789759</v>
+        <v>-1.5980579976874773e-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>10.91455507252538</v>
+        <v>277.77017498110973</v>
       </c>
       <c r="B7">
-        <v>16.662367587229173</v>
+        <v>346.3391508351729</v>
       </c>
       <c r="C7">
-        <v>4.582993416519864</v>
+        <v>27.45059499712892</v>
       </c>
       <c r="D7">
-        <v>1.0000024189929935</v>
+        <v>0.9999853562002309</v>
       </c>
       <c r="E7">
-        <v>-0.00012168767454262106</v>
+        <v>-0.003262633161243113</v>
       </c>
       <c r="F7">
-        <v>0.00018186629090692497</v>
+        <v>-0.004757383558442927</v>
       </c>
       <c r="G7">
-        <v>0.01079135467175498</v>
+        <v>-1.06940699124162e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>10.98371696638939</v>
+        <v>279.84468303730796</v>
       </c>
       <c r="B8">
-        <v>16.252827762848405</v>
+        <v>344.26752140661955</v>
       </c>
       <c r="C8">
-        <v>4.575258971535048</v>
+        <v>28.322535389984928</v>
       </c>
       <c r="D8">
-        <v>1.0000000205013742</v>
+        <v>0.9999866888374752</v>
       </c>
       <c r="E8">
-        <v>5.1118889729209085e-5</v>
+        <v>-0.004658202277015518</v>
       </c>
       <c r="F8">
-        <v>0.0001762165570132967</v>
+        <v>-0.0029335994276557353</v>
       </c>
       <c r="G8">
-        <v>0.010461298894271456</v>
+        <v>-1.0886605192064203e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>11.050433030061928</v>
+        <v>281.73765981295907</v>
       </c>
       <c r="B9">
-        <v>15.830747909923295</v>
+        <v>341.84259039678057</v>
       </c>
       <c r="C9">
-        <v>4.57136732535627</v>
+        <v>28.891838969797327</v>
       </c>
       <c r="D9">
-        <v>0.9999998542039836</v>
+        <v>0.9999885259693834</v>
       </c>
       <c r="E9">
-        <v>3.122297197850926e-5</v>
+        <v>-0.004844747978283022</v>
       </c>
       <c r="F9">
-        <v>2.1940798196424382e-5</v>
+        <v>-0.0016741695061975109</v>
       </c>
       <c r="G9">
-        <v>0.010543305411757355</v>
+        <v>-8.970850760935818e-6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>11.109619135338678</v>
+        <v>283.0402369259608</v>
       </c>
       <c r="B10">
-        <v>15.418772422360606</v>
+        <v>338.9806395000311</v>
       </c>
       <c r="C10">
-        <v>4.570434503077744</v>
+        <v>29.29945180894417</v>
       </c>
       <c r="D10">
-        <v>1.0000001684507671</v>
+        <v>0.9999877760002192</v>
       </c>
       <c r="E10">
-        <v>-3.7860514991857873e-6</v>
+        <v>-0.0052256243827883825</v>
       </c>
       <c r="F10">
-        <v>0.0001351514682837561</v>
+        <v>0.0007191064301409187</v>
       </c>
       <c r="G10">
-        <v>0.01058255618467834</v>
+        <v>-1.0134864899361415e-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11.215950110600332</v>
+        <v>284.3193939184936</v>
       </c>
       <c r="B11">
-        <v>15.0164038050954</v>
+        <v>335.977405484406</v>
       </c>
       <c r="C11">
-        <v>4.571818569701451</v>
+        <v>29.599956731972974</v>
       </c>
       <c r="D11">
-        <v>0.9999997962921814</v>
+        <v>0.9999908845656631</v>
       </c>
       <c r="E11">
-        <v>-2.5670120431542102e-5</v>
+        <v>-0.004551769686782153</v>
       </c>
       <c r="F11">
-        <v>0.00012647283699976947</v>
+        <v>0.000640183635112517</v>
       </c>
       <c r="G11">
-        <v>0.010576823273553044</v>
+        <v>-6.4891425180909245e-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>285.5128814717513</v>
+      </c>
+      <c r="B12">
+        <v>332.9352701226325</v>
+      </c>
+      <c r="C12">
+        <v>29.80209445177321</v>
+      </c>
+      <c r="D12">
+        <v>0.9999917764830836</v>
+      </c>
+      <c r="E12">
+        <v>-0.003758364685075176</v>
+      </c>
+      <c r="F12">
+        <v>0.0009251951275203228</v>
+      </c>
+      <c r="G12">
+        <v>0.0004886930698403118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>286.93582870315936</v>
+      </c>
+      <c r="B13">
+        <v>329.90146266561766</v>
+      </c>
+      <c r="C13">
+        <v>29.9258184079956</v>
+      </c>
+      <c r="D13">
+        <v>0.9999986855712611</v>
+      </c>
+      <c r="E13">
+        <v>-0.0012134864298120787</v>
+      </c>
+      <c r="F13">
+        <v>-8.02228862758936e-5</v>
+      </c>
+      <c r="G13">
+        <v>-0.000455879927290237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>288.8851376749586</v>
+      </c>
+      <c r="B14">
+        <v>327.0757576651942</v>
+      </c>
+      <c r="C14">
+        <v>29.999972158336643</v>
+      </c>
+      <c r="D14">
+        <v>0.9999998150117396</v>
+      </c>
+      <c r="E14">
+        <v>-0.0004038219574820193</v>
+      </c>
+      <c r="F14">
+        <v>-0.0005628894840111879</v>
+      </c>
+      <c r="G14">
+        <v>-0.00011646264779181337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>290.5991393190304</v>
+      </c>
+      <c r="B15">
+        <v>324.06652131455417</v>
+      </c>
+      <c r="C15">
+        <v>29.997577224255238</v>
+      </c>
+      <c r="D15">
+        <v>1.000002821862697</v>
+      </c>
+      <c r="E15">
+        <v>0.0010594826757516014</v>
+      </c>
+      <c r="F15">
+        <v>0.00042074701973992575</v>
+      </c>
+      <c r="G15">
+        <v>-0.0026984268133448505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>291.9322256615176</v>
+      </c>
+      <c r="B16">
+        <v>320.7094589124928</v>
+      </c>
+      <c r="C16">
+        <v>29.99844452169676</v>
+      </c>
+      <c r="D16">
+        <v>0.9999952478125373</v>
+      </c>
+      <c r="E16">
+        <v>-0.0029411875405731796</v>
+      </c>
+      <c r="F16">
+        <v>0.0008876627240446845</v>
+      </c>
+      <c r="G16">
+        <v>-2.984955796943479e-17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>292.1779936741919</v>
+      </c>
+      <c r="B17">
+        <v>317.19069476512294</v>
+      </c>
+      <c r="C17">
+        <v>29.998177666181675</v>
+      </c>
+      <c r="D17">
+        <v>0.9999991675066691</v>
+      </c>
+      <c r="E17">
+        <v>-0.002103425656058889</v>
+      </c>
+      <c r="F17">
+        <v>0.0036006067185482336</v>
+      </c>
+      <c r="G17">
+        <v>-1.674968044655678e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>292.25755015707466</v>
+      </c>
+      <c r="B18">
+        <v>313.6137327236057</v>
+      </c>
+      <c r="C18">
+        <v>29.997271783403814</v>
+      </c>
+      <c r="D18">
+        <v>0.9999989198875788</v>
+      </c>
+      <c r="E18">
+        <v>-0.0016380142512231201</v>
+      </c>
+      <c r="F18">
+        <v>0.002984011294985825</v>
+      </c>
+      <c r="G18">
+        <v>4.6051358024271664e-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>292.9067259332978</v>
+      </c>
+      <c r="B19">
+        <v>309.971984765523</v>
+      </c>
+      <c r="C19">
+        <v>29.999999678609875</v>
+      </c>
+      <c r="D19">
+        <v>0.9999971455924526</v>
+      </c>
+      <c r="E19">
+        <v>-0.0021043260255010736</v>
+      </c>
+      <c r="F19">
+        <v>0.0011210107818527097</v>
+      </c>
+      <c r="G19">
+        <v>-1.9885752798019807e-18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>293.6380504109419</v>
+      </c>
+      <c r="B20">
+        <v>306.38173493956947</v>
+      </c>
+      <c r="C20">
+        <v>29.99798906745382</v>
+      </c>
+      <c r="D20">
+        <v>1.0000016537689853</v>
+      </c>
+      <c r="E20">
+        <v>0.0018964601418123563</v>
+      </c>
+      <c r="F20">
+        <v>-0.0007261759097085908</v>
+      </c>
+      <c r="G20">
+        <v>2.052852285475361e-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>294.5202931668654</v>
+      </c>
+      <c r="B21">
+        <v>302.7095704253217</v>
+      </c>
+      <c r="C21">
+        <v>29.999999659112323</v>
+      </c>
+      <c r="D21">
+        <v>0.99999897508029</v>
+      </c>
+      <c r="E21">
+        <v>-0.0014192938365301857</v>
+      </c>
+      <c r="F21">
+        <v>-0.00017980377658976133</v>
+      </c>
+      <c r="G21">
+        <v>-3.0110667235373004e-16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>296.1170451513432</v>
+      </c>
+      <c r="B22">
+        <v>299.39193677377716</v>
+      </c>
+      <c r="C22">
+        <v>29.997711476179074</v>
+      </c>
+      <c r="D22">
+        <v>1.0000010811747755</v>
+      </c>
+      <c r="E22">
+        <v>-7.66849725665042e-5</v>
+      </c>
+      <c r="F22">
+        <v>0.0006616353548207244</v>
+      </c>
+      <c r="G22">
+        <v>-0.000331695087479982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>297.4995153089892</v>
+      </c>
+      <c r="B23">
+        <v>295.83854420484863</v>
+      </c>
+      <c r="C23">
+        <v>29.996599833430075</v>
+      </c>
+      <c r="D23">
+        <v>0.9999987231159976</v>
+      </c>
+      <c r="E23">
+        <v>-0.0006903456709646291</v>
+      </c>
+      <c r="F23">
+        <v>-0.0014395597070248492</v>
+      </c>
+      <c r="G23">
+        <v>7.224235756762432e-17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>298.6846250061071</v>
+      </c>
+      <c r="B24">
+        <v>292.18226256626696</v>
+      </c>
+      <c r="C24">
+        <v>29.99999970588056</v>
+      </c>
+      <c r="D24">
+        <v>0.9999995047830883</v>
+      </c>
+      <c r="E24">
+        <v>-0.0009383598493524752</v>
+      </c>
+      <c r="F24">
+        <v>-0.0003304298984104241</v>
+      </c>
+      <c r="G24">
+        <v>-2.0432923729382272e-16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>299.82796066435105</v>
+      </c>
+      <c r="B25">
+        <v>288.5256093811643</v>
+      </c>
+      <c r="C25">
+        <v>29.997152109040833</v>
+      </c>
+      <c r="D25">
+        <v>1.0000007963275637</v>
+      </c>
+      <c r="E25">
+        <v>0.0010624149779719459</v>
+      </c>
+      <c r="F25">
+        <v>0.00013106748752894908</v>
+      </c>
+      <c r="G25">
+        <v>-7.021242511438708e-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>301.14071788446284</v>
+      </c>
+      <c r="B26">
+        <v>284.8744419472501</v>
+      </c>
+      <c r="C26">
+        <v>29.996337188410923</v>
+      </c>
+      <c r="D26">
+        <v>0.9999995835784459</v>
+      </c>
+      <c r="E26">
+        <v>-0.0005383178754670246</v>
+      </c>
+      <c r="F26">
+        <v>-0.000736571786212462</v>
+      </c>
+      <c r="G26">
+        <v>5.852071275629261e-16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>302.95109642198196</v>
+      </c>
+      <c r="B27">
+        <v>281.4586182824116</v>
+      </c>
+      <c r="C27">
+        <v>29.999999630827872</v>
+      </c>
+      <c r="D27">
+        <v>0.999996638507685</v>
+      </c>
+      <c r="E27">
+        <v>0.0005146148873643914</v>
+      </c>
+      <c r="F27">
+        <v>-0.002534758940492015</v>
+      </c>
+      <c r="G27">
+        <v>-2.920171739287264e-16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>304.68884255924246</v>
+      </c>
+      <c r="B28">
+        <v>278.01979216483113</v>
+      </c>
+      <c r="C28">
+        <v>29.99800876713384</v>
+      </c>
+      <c r="D28">
+        <v>1.000002116201057</v>
+      </c>
+      <c r="E28">
+        <v>-0.0003834083638206288</v>
+      </c>
+      <c r="F28">
+        <v>0.002079678990620338</v>
+      </c>
+      <c r="G28">
+        <v>-3.898532657627883e-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>305.95479903305477</v>
+      </c>
+      <c r="B29">
+        <v>274.32088531294016</v>
+      </c>
+      <c r="C29">
+        <v>29.99999965388461</v>
+      </c>
+      <c r="D29">
+        <v>0.9999995203878951</v>
+      </c>
+      <c r="E29">
+        <v>-0.0007912149825857755</v>
+      </c>
+      <c r="F29">
+        <v>0.0005766446914128867</v>
+      </c>
+      <c r="G29">
+        <v>1.3110427490954223e-16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>307.1804374083191</v>
+      </c>
+      <c r="B30">
+        <v>270.61654939717766</v>
+      </c>
+      <c r="C30">
+        <v>29.997190068797227</v>
+      </c>
+      <c r="D30">
+        <v>1.0000009197132294</v>
+      </c>
+      <c r="E30">
+        <v>0.0006800223718724813</v>
+      </c>
+      <c r="F30">
+        <v>-0.0006514360680253471</v>
+      </c>
+      <c r="G30">
+        <v>-6.4008870801613764e-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>308.6651791070362</v>
+      </c>
+      <c r="B31">
+        <v>266.9759306460972</v>
+      </c>
+      <c r="C31">
+        <v>29.99631720947959</v>
+      </c>
+      <c r="D31">
+        <v>0.9999998182163533</v>
+      </c>
+      <c r="E31">
+        <v>-0.0002365934858760513</v>
+      </c>
+      <c r="F31">
+        <v>-0.0005545195858394436</v>
+      </c>
+      <c r="G31">
+        <v>-4.238335815867785e-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>309.76489671027707</v>
+      </c>
+      <c r="B32">
+        <v>263.1987557551138</v>
+      </c>
+      <c r="C32">
+        <v>29.999999667521124</v>
+      </c>
+      <c r="D32">
+        <v>0.9999991411575997</v>
+      </c>
+      <c r="E32">
+        <v>-0.0007216068148618213</v>
+      </c>
+      <c r="F32">
+        <v>0.001093057813719149</v>
+      </c>
+      <c r="G32">
+        <v>-8.616390322984282e-17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>310.5902658440102</v>
+      </c>
+      <c r="B33">
+        <v>259.3866517450026</v>
+      </c>
+      <c r="C33">
+        <v>29.997834037250723</v>
+      </c>
+      <c r="D33">
+        <v>1.0000026733358862</v>
+      </c>
+      <c r="E33">
+        <v>0.00039745322345086873</v>
+      </c>
+      <c r="F33">
+        <v>-0.0011186838246402251</v>
+      </c>
+      <c r="G33">
+        <v>0.00010153967178382772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>311.4584691832423</v>
+      </c>
+      <c r="B34">
+        <v>255.54474085195451</v>
+      </c>
+      <c r="C34">
+        <v>29.996595551435092</v>
+      </c>
+      <c r="D34">
+        <v>0.9999989124651913</v>
+      </c>
+      <c r="E34">
+        <v>-0.0006538286006027038</v>
+      </c>
+      <c r="F34">
+        <v>0.001320624690479057</v>
+      </c>
+      <c r="G34">
+        <v>3.696063657645282e-16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>312.1494358516163</v>
+      </c>
+      <c r="B35">
+        <v>251.66803407948547</v>
+      </c>
+      <c r="C35">
+        <v>29.999999681868438</v>
+      </c>
+      <c r="D35">
+        <v>0.9999983135356411</v>
+      </c>
+      <c r="E35">
+        <v>-0.0006416179386540507</v>
+      </c>
+      <c r="F35">
+        <v>0.0017183815392017134</v>
+      </c>
+      <c r="G35">
+        <v>7.164089480219305e-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>313.6301780058763</v>
+      </c>
+      <c r="B36">
+        <v>248.0405528427022</v>
+      </c>
+      <c r="C36">
+        <v>29.997618983072634</v>
+      </c>
+      <c r="D36">
+        <v>1.0000016130493965</v>
+      </c>
+      <c r="E36">
+        <v>-0.00031419113571842756</v>
+      </c>
+      <c r="F36">
+        <v>0.0011428941695163122</v>
+      </c>
+      <c r="G36">
+        <v>-5.905683202433044e-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>314.7826591754006</v>
+      </c>
+      <c r="B37">
+        <v>244.2541936610522</v>
+      </c>
+      <c r="C37">
+        <v>29.996095607853828</v>
+      </c>
+      <c r="D37">
+        <v>0.9999999649786814</v>
+      </c>
+      <c r="E37">
+        <v>-0.00024674843383312576</v>
+      </c>
+      <c r="F37">
+        <v>-9.567744469896235e-5</v>
+      </c>
+      <c r="G37">
+        <v>-4.304061236942004e-16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>315.91703034563517</v>
+      </c>
+      <c r="B38">
+        <v>240.45606577391243</v>
+      </c>
+      <c r="C38">
+        <v>29.99999964034813</v>
+      </c>
+      <c r="D38">
+        <v>0.9999999719512888</v>
+      </c>
+      <c r="E38">
+        <v>-0.00023683333574625717</v>
+      </c>
+      <c r="F38">
+        <v>-2.2476114708101004e-6</v>
+      </c>
+      <c r="G38">
+        <v>-4.2520174219573494e-16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>317.3171785491292</v>
+      </c>
+      <c r="B39">
+        <v>236.75976782957252</v>
+      </c>
+      <c r="C39">
+        <v>29.997340885063508</v>
+      </c>
+      <c r="D39">
+        <v>1.000001319041995</v>
+      </c>
+      <c r="E39">
+        <v>-0.00022324788797860486</v>
+      </c>
+      <c r="F39">
+        <v>0.0010597125387784574</v>
+      </c>
+      <c r="G39">
+        <v>-1.188730183078217e-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>319.5984044473838</v>
+      </c>
+      <c r="B40">
+        <v>233.66435980717964</v>
+      </c>
+      <c r="C40">
+        <v>29.99708838526469</v>
+      </c>
+      <c r="D40">
+        <v>0.9999873332924027</v>
+      </c>
+      <c r="E40">
+        <v>0.0025416675109840086</v>
+      </c>
+      <c r="F40">
+        <v>-0.004291799629499772</v>
+      </c>
+      <c r="G40">
+        <v>-1.972087077622886e-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>321.47386310257826</v>
+      </c>
+      <c r="B41">
+        <v>230.205325026894</v>
+      </c>
+      <c r="C41">
+        <v>29.99999971320443</v>
+      </c>
+      <c r="D41">
+        <v>0.9999984048812315</v>
+      </c>
+      <c r="E41">
+        <v>0.0005230245718223301</v>
+      </c>
+      <c r="F41">
+        <v>-0.0017056224250797279</v>
+      </c>
+      <c r="G41">
+        <v>-4.2307653210382646e-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>323.1380921928968</v>
+      </c>
+      <c r="B42">
+        <v>226.63135349022352</v>
+      </c>
+      <c r="C42">
+        <v>29.99704721185092</v>
+      </c>
+      <c r="D42">
+        <v>1.0000005124135734</v>
+      </c>
+      <c r="E42">
+        <v>5.385295740660715e-5</v>
+      </c>
+      <c r="F42">
+        <v>0.0005321287643735972</v>
+      </c>
+      <c r="G42">
+        <v>-4.433874465875002e-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>322.0225162261065</v>
+      </c>
+      <c r="B43">
+        <v>223.48266844945599</v>
+      </c>
+      <c r="C43">
+        <v>29.993834817751324</v>
+      </c>
+      <c r="D43">
+        <v>0.9999374750326915</v>
+      </c>
+      <c r="E43">
+        <v>0.001644716819125533</v>
+      </c>
+      <c r="F43">
+        <v>0.010641023436803527</v>
+      </c>
+      <c r="G43">
+        <v>9.47486290238332e-16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>321.3805975782654</v>
+      </c>
+      <c r="B44">
+        <v>219.89999202036503</v>
+      </c>
+      <c r="C44">
+        <v>29.996298259448956</v>
+      </c>
+      <c r="D44">
+        <v>0.9999791001486152</v>
+      </c>
+      <c r="E44">
+        <v>-0.0004443242729795804</v>
+      </c>
+      <c r="F44">
+        <v>0.006357406160871548</v>
+      </c>
+      <c r="G44">
+        <v>2.1964719728183622e-16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>320.3794351153064</v>
+      </c>
+      <c r="B45">
+        <v>216.41900852570512</v>
+      </c>
+      <c r="C45">
+        <v>29.99999954731245</v>
+      </c>
+      <c r="D45">
+        <v>0.9999794038599097</v>
+      </c>
+      <c r="E45">
+        <v>6.05504113306327e-5</v>
+      </c>
+      <c r="F45">
+        <v>0.006327896326843819</v>
+      </c>
+      <c r="G45">
+        <v>-1.2908639885206479e-15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>319.668934511425</v>
+      </c>
+      <c r="B46">
+        <v>212.80611983135933</v>
+      </c>
+      <c r="C46">
+        <v>29.999935594499956</v>
+      </c>
+      <c r="D46">
+        <v>0.9999950592723258</v>
+      </c>
+      <c r="E46">
+        <v>-0.0005393766451196557</v>
+      </c>
+      <c r="F46">
+        <v>0.0042449228281692215</v>
+      </c>
+      <c r="G46">
+        <v>0.0002115526008281141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>319.29765153910796</v>
+      </c>
+      <c r="B47">
+        <v>209.08049352328268</v>
+      </c>
+      <c r="C47">
+        <v>29.998008090672315</v>
+      </c>
+      <c r="D47">
+        <v>1.000002179459896</v>
+      </c>
+      <c r="E47">
+        <v>0.0005539143077690125</v>
+      </c>
+      <c r="F47">
+        <v>-0.0010737140198296522</v>
+      </c>
+      <c r="G47">
+        <v>0.0001913235961912805</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>318.0696472634803</v>
+      </c>
+      <c r="B48">
+        <v>205.56008989818045</v>
+      </c>
+      <c r="C48">
+        <v>29.999999546176824</v>
+      </c>
+      <c r="D48">
+        <v>0.9999891570831766</v>
+      </c>
+      <c r="E48">
+        <v>0.00017687697366507778</v>
+      </c>
+      <c r="F48">
+        <v>0.004617668560310208</v>
+      </c>
+      <c r="G48">
+        <v>-3.2744594822163814e-16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>317.1997044515133</v>
+      </c>
+      <c r="B49">
+        <v>201.90869990455357</v>
+      </c>
+      <c r="C49">
+        <v>29.99849867207376</v>
+      </c>
+      <c r="D49">
+        <v>1.000002719356181</v>
+      </c>
+      <c r="E49">
+        <v>0.00018978622732788742</v>
+      </c>
+      <c r="F49">
+        <v>-0.001080755131923873</v>
+      </c>
+      <c r="G49">
+        <v>0.0002170188700715778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>316.2549760860272</v>
+      </c>
+      <c r="B50">
+        <v>198.24393768178857</v>
+      </c>
+      <c r="C50">
+        <v>29.999953484923804</v>
+      </c>
+      <c r="D50">
+        <v>1.0000042114704537</v>
+      </c>
+      <c r="E50">
+        <v>-0.0001742234129915624</v>
+      </c>
+      <c r="F50">
+        <v>0.0007189625556212727</v>
+      </c>
+      <c r="G50">
+        <v>-0.0002815250067676383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>315.1155643575765</v>
+      </c>
+      <c r="B51">
+        <v>194.63733719540048</v>
+      </c>
+      <c r="C51">
+        <v>29.99786701134972</v>
+      </c>
+      <c r="D51">
+        <v>1.000002859864997</v>
+      </c>
+      <c r="E51">
+        <v>1.2440444027152074e-5</v>
+      </c>
+      <c r="F51">
+        <v>-0.0010439427751630286</v>
+      </c>
+      <c r="G51">
+        <v>-0.0001431420496810685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>313.84006154085137</v>
+      </c>
+      <c r="B52">
+        <v>191.00730635722454</v>
+      </c>
+      <c r="C52">
+        <v>29.99706044772284</v>
+      </c>
+      <c r="D52">
+        <v>0.9999973387555933</v>
+      </c>
+      <c r="E52">
+        <v>-0.00012366054254529216</v>
+      </c>
+      <c r="F52">
+        <v>0.0022991773562776223</v>
+      </c>
+      <c r="G52">
+        <v>7.018907443004416e-17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>311.7076870877421</v>
+      </c>
+      <c r="B53">
+        <v>187.95341714804715</v>
+      </c>
+      <c r="C53">
+        <v>29.999999528339416</v>
+      </c>
+      <c r="D53">
+        <v>0.9999838579659406</v>
+      </c>
+      <c r="E53">
+        <v>0.0021876204261197475</v>
+      </c>
+      <c r="F53">
+        <v>0.0051750054611930715</v>
+      </c>
+      <c r="G53">
+        <v>4.204175506500611e-16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>309.96295785484284</v>
+      </c>
+      <c r="B54">
+        <v>184.59797345665982</v>
+      </c>
+      <c r="C54">
+        <v>29.99948376228456</v>
+      </c>
+      <c r="D54">
+        <v>1.000003531468519</v>
+      </c>
+      <c r="E54">
+        <v>-0.0001378547318492278</v>
+      </c>
+      <c r="F54">
+        <v>-0.0006183992524347015</v>
+      </c>
+      <c r="G54">
+        <v>-0.0016359774559910538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>307.4692699383897</v>
+      </c>
+      <c r="B55">
+        <v>181.83885090281055</v>
+      </c>
+      <c r="C55">
+        <v>30.000000000022098</v>
+      </c>
+      <c r="D55">
+        <v>0.9999995963276714</v>
+      </c>
+      <c r="E55">
+        <v>0.0015914171899683422</v>
+      </c>
+      <c r="F55">
+        <v>0.0028338212238946756</v>
+      </c>
+      <c r="G55">
+        <v>-3.5588049379958475e-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>305.20968887642147</v>
+      </c>
+      <c r="B56">
+        <v>178.83567683122055</v>
+      </c>
+      <c r="C56">
+        <v>29.999702820338612</v>
+      </c>
+      <c r="D56">
+        <v>1.0000015724038394</v>
+      </c>
+      <c r="E56">
+        <v>8.23118278780584e-5</v>
+      </c>
+      <c r="F56">
+        <v>0.00022877721946723827</v>
+      </c>
+      <c r="G56">
+        <v>-0.0007034668955254095</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>302.79893937502</v>
+      </c>
+      <c r="B57">
+        <v>175.95242686596947</v>
+      </c>
+      <c r="C57">
+        <v>29.99824039792222</v>
+      </c>
+      <c r="D57">
+        <v>1.000002064559552</v>
+      </c>
+      <c r="E57">
+        <v>-2.260349734846276e-5</v>
+      </c>
+      <c r="F57">
+        <v>-1.1203856325938538e-5</v>
+      </c>
+      <c r="G57">
+        <v>-0.0016556936102513217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>300.9328871639521</v>
+      </c>
+      <c r="B58">
+        <v>172.56756671092847</v>
+      </c>
+      <c r="C58">
+        <v>29.999960388140817</v>
+      </c>
+      <c r="D58">
+        <v>0.9999948153160665</v>
+      </c>
+      <c r="E58">
+        <v>-0.001162421079378865</v>
+      </c>
+      <c r="F58">
+        <v>-6.45117894459636e-5</v>
+      </c>
+      <c r="G58">
+        <v>-0.0001158689090690742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>299.60405886455345</v>
+      </c>
+      <c r="B59">
+        <v>169.00615400329656</v>
+      </c>
+      <c r="C59">
+        <v>29.997652584601116</v>
+      </c>
+      <c r="D59">
+        <v>1.0000009384873951</v>
+      </c>
+      <c r="E59">
+        <v>0.0005261867559066582</v>
+      </c>
+      <c r="F59">
+        <v>0.0007656052002718368</v>
+      </c>
+      <c r="G59">
+        <v>0.0005263930890952626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>300.3593944033907</v>
+      </c>
+      <c r="B60">
+        <v>165.72757778490967</v>
+      </c>
+      <c r="C60">
+        <v>29.9943802973686</v>
+      </c>
+      <c r="D60">
+        <v>0.9999473915908988</v>
+      </c>
+      <c r="E60">
+        <v>5.8926966434584355e-6</v>
+      </c>
+      <c r="F60">
+        <v>-0.009927070093298393</v>
+      </c>
+      <c r="G60">
+        <v>-4.7082429632843414e-17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>300.34427027310716</v>
+      </c>
+      <c r="B61">
+        <v>162.0414398582745</v>
+      </c>
+      <c r="C61">
+        <v>29.99733316174282</v>
+      </c>
+      <c r="D61">
+        <v>0.9999878575046589</v>
+      </c>
+      <c r="E61">
+        <v>-0.0016044262446175848</v>
+      </c>
+      <c r="F61">
+        <v>-0.0046145426051233</v>
+      </c>
+      <c r="G61">
+        <v>-8.787407433087783e-17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>302.32692169910155</v>
+      </c>
+      <c r="B62">
+        <v>159.9022480379166</v>
+      </c>
+      <c r="C62">
+        <v>29.992799330023118</v>
+      </c>
+      <c r="D62">
+        <v>0.9999141842737912</v>
+      </c>
+      <c r="E62">
+        <v>0.004890799546807665</v>
+      </c>
+      <c r="F62">
+        <v>-0.01147713356517975</v>
+      </c>
+      <c r="G62">
+        <v>-5.395337293796244e-16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>303.68295625472155</v>
+      </c>
+      <c r="B63">
+        <v>156.72057717210777</v>
+      </c>
+      <c r="C63">
+        <v>29.996557577386696</v>
+      </c>
+      <c r="D63">
+        <v>0.999978632805152</v>
+      </c>
+      <c r="E63">
+        <v>-0.0003266828068007704</v>
+      </c>
+      <c r="F63">
+        <v>-0.006433870125810752</v>
+      </c>
+      <c r="G63">
+        <v>-2.444077195413481e-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>303.4432685049133</v>
+      </c>
+      <c r="B64">
+        <v>153.07412684108934</v>
+      </c>
+      <c r="C64">
+        <v>29.997558663780485</v>
+      </c>
+      <c r="D64">
+        <v>0.9999968929335626</v>
+      </c>
+      <c r="E64">
+        <v>-0.00207973440188747</v>
+      </c>
+      <c r="F64">
+        <v>0.0013638723859125427</v>
+      </c>
+      <c r="G64">
+        <v>3.5524044544235636e-16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>303.55129643582876</v>
+      </c>
+      <c r="B65">
+        <v>149.36715215572642</v>
+      </c>
+      <c r="C65">
+        <v>29.99999973202083</v>
+      </c>
+      <c r="D65">
+        <v>0.9999982400244352</v>
+      </c>
+      <c r="E65">
+        <v>-0.0018463023392091453</v>
+      </c>
+      <c r="F65">
+        <v>-0.00031930478145337615</v>
+      </c>
+      <c r="G65">
+        <v>-1.4845915033662845e-17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>303.5292162823243</v>
+      </c>
+      <c r="B66">
+        <v>145.81071053232154</v>
+      </c>
+      <c r="C66">
+        <v>29.99754655273728</v>
+      </c>
+      <c r="D66">
+        <v>1.0000002992813757</v>
+      </c>
+      <c r="E66">
+        <v>0.007315275175814182</v>
+      </c>
+      <c r="F66">
+        <v>-0.002374373432082303</v>
+      </c>
+      <c r="G66">
+        <v>-0.00011363881177507007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>305.17144431672034</v>
+      </c>
+      <c r="B67">
+        <v>142.6559574925055</v>
+      </c>
+      <c r="C67">
+        <v>29.996490434107383</v>
+      </c>
+      <c r="D67">
+        <v>0.9999787144714058</v>
+      </c>
+      <c r="E67">
+        <v>0.0009371046821590712</v>
+      </c>
+      <c r="F67">
+        <v>-0.006360667628693077</v>
+      </c>
+      <c r="G67">
+        <v>-8.262902573998249e-17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>306.6245842502537</v>
+      </c>
+      <c r="B68">
+        <v>139.27882127343236</v>
+      </c>
+      <c r="C68">
+        <v>29.997438564523975</v>
+      </c>
+      <c r="D68">
+        <v>0.9999912490778744</v>
+      </c>
+      <c r="E68">
+        <v>-0.0001551801576732212</v>
+      </c>
+      <c r="F68">
+        <v>-0.0041541781826262905</v>
+      </c>
+      <c r="G68">
+        <v>1.999699893996771e-16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>308.78629374187216</v>
+      </c>
+      <c r="B69">
+        <v>136.4382965567285</v>
+      </c>
+      <c r="C69">
+        <v>29.999999548046333</v>
+      </c>
+      <c r="D69">
+        <v>0.9999792471070817</v>
+      </c>
+      <c r="E69">
+        <v>0.0020081921925928442</v>
+      </c>
+      <c r="F69">
+        <v>-0.006025869436414793</v>
+      </c>
+      <c r="G69">
+        <v>-4.011923909066711e-16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>311.5314155657302</v>
+      </c>
+      <c r="B70">
+        <v>134.4727665010184</v>
+      </c>
+      <c r="C70">
+        <v>29.995681874911792</v>
+      </c>
+      <c r="D70">
+        <v>0.9999758740150146</v>
+      </c>
+      <c r="E70">
+        <v>0.004250746074897628</v>
+      </c>
+      <c r="F70">
+        <v>-0.005897480168012084</v>
+      </c>
+      <c r="G70">
+        <v>-3.993125544883595e-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>314.4718274709697</v>
+      </c>
+      <c r="B71">
+        <v>132.7763659258142</v>
+      </c>
+      <c r="C71">
+        <v>29.995427480352053</v>
+      </c>
+      <c r="D71">
+        <v>0.9999679321312802</v>
+      </c>
+      <c r="E71">
+        <v>0.004913106122534242</v>
+      </c>
+      <c r="F71">
+        <v>-0.006109616750043966</v>
+      </c>
+      <c r="G71">
+        <v>4.2906316300312655e-16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>317.41427152405015</v>
+      </c>
+      <c r="B72">
+        <v>130.79250028409606</v>
+      </c>
+      <c r="C72">
+        <v>29.996893431962548</v>
+      </c>
+      <c r="D72">
+        <v>0.9999851367782593</v>
+      </c>
+      <c r="E72">
+        <v>0.002641869901082632</v>
+      </c>
+      <c r="F72">
+        <v>-0.004704002454958311</v>
+      </c>
+      <c r="G72">
+        <v>-2.228807852626489e-16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>320.6530934052277</v>
+      </c>
+      <c r="B73">
+        <v>130.04490044175893</v>
+      </c>
+      <c r="C73">
+        <v>29.99543915679261</v>
+      </c>
+      <c r="D73">
+        <v>0.9999627050448952</v>
+      </c>
+      <c r="E73">
+        <v>0.006926253265890862</v>
+      </c>
+      <c r="F73">
+        <v>-0.004802230070516117</v>
+      </c>
+      <c r="G73">
+        <v>-6.654711526660253e-16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>323.60253182268343</v>
+      </c>
+      <c r="B74">
+        <v>127.892607119548</v>
+      </c>
+      <c r="C74">
+        <v>29.99836643725801</v>
+      </c>
+      <c r="D74">
+        <v>0.9999966887713169</v>
+      </c>
+      <c r="E74">
+        <v>-0.00019844566421083293</v>
+      </c>
+      <c r="F74">
+        <v>-0.002559433825640579</v>
+      </c>
+      <c r="G74">
+        <v>-3.640964186484539e-16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>326.13253179675644</v>
+      </c>
+      <c r="B75">
+        <v>125.32801515677437</v>
+      </c>
+      <c r="C75">
+        <v>29.998273782527708</v>
+      </c>
+      <c r="D75">
+        <v>1.0000027519611334</v>
+      </c>
+      <c r="E75">
+        <v>0.0013644021802318193</v>
+      </c>
+      <c r="F75">
+        <v>0.0002413179554455914</v>
+      </c>
+      <c r="G75">
+        <v>0.0015116236084544471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>328.27687705636527</v>
+      </c>
+      <c r="B76">
+        <v>122.43199651389628</v>
+      </c>
+      <c r="C76">
+        <v>29.999974938107965</v>
+      </c>
+      <c r="D76">
+        <v>1.0000019663208644</v>
+      </c>
+      <c r="E76">
+        <v>0.00042758641002692537</v>
+      </c>
+      <c r="F76">
+        <v>-0.00022028566685018328</v>
+      </c>
+      <c r="G76">
+        <v>0.001259212215121936</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>330.24863552645724</v>
+      </c>
+      <c r="B77">
+        <v>119.3934345206747</v>
+      </c>
+      <c r="C77">
+        <v>29.997808990472148</v>
+      </c>
+      <c r="D77">
+        <v>1.000002421860659</v>
+      </c>
+      <c r="E77">
+        <v>0.0001990072884822488</v>
+      </c>
+      <c r="F77">
+        <v>-7.465752041933062e-5</v>
+      </c>
+      <c r="G77">
+        <v>8.427629494386961e-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>333.2648735374987</v>
+      </c>
+      <c r="B78">
+        <v>117.19073260794946</v>
+      </c>
+      <c r="C78">
+        <v>29.997409022862684</v>
+      </c>
+      <c r="D78">
+        <v>0.9999951805077538</v>
+      </c>
+      <c r="E78">
+        <v>0.0012525279325305261</v>
+      </c>
+      <c r="F78">
+        <v>-0.0028287899419262245</v>
+      </c>
+      <c r="G78">
+        <v>6.05697586060396e-16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>335.9985825708622</v>
+      </c>
+      <c r="B79">
+        <v>114.55430917085529</v>
+      </c>
+      <c r="C79">
+        <v>29.99772326371443</v>
+      </c>
+      <c r="D79">
+        <v>0.999999157266219</v>
+      </c>
+      <c r="E79">
+        <v>-0.0007452805970354858</v>
+      </c>
+      <c r="F79">
+        <v>-0.0010620243552075435</v>
+      </c>
+      <c r="G79">
+        <v>1.768416025736657e-16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>338.97602258022664</v>
+      </c>
+      <c r="B80">
+        <v>112.16808124531053</v>
+      </c>
+      <c r="C80">
+        <v>29.99766131023874</v>
+      </c>
+      <c r="D80">
+        <v>0.9999983317967236</v>
+      </c>
+      <c r="E80">
+        <v>0.000411858512894226</v>
+      </c>
+      <c r="F80">
+        <v>-0.0017772082432984523</v>
+      </c>
+      <c r="G80">
+        <v>2.4832296169809362e-17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>341.7974644404125</v>
+      </c>
+      <c r="B81">
+        <v>109.55007619024762</v>
+      </c>
+      <c r="C81">
+        <v>29.99775773876557</v>
+      </c>
+      <c r="D81">
+        <v>0.9999995381960045</v>
+      </c>
+      <c r="E81">
+        <v>-0.0005958205421760492</v>
+      </c>
+      <c r="F81">
+        <v>-0.0007536349264321775</v>
+      </c>
+      <c r="G81">
+        <v>-1.2303725499116917e-16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>343.84801922109966</v>
+      </c>
+      <c r="B82">
+        <v>106.34724211029264</v>
+      </c>
+      <c r="C82">
+        <v>29.997577161129982</v>
+      </c>
+      <c r="D82">
+        <v>0.99999309443365</v>
+      </c>
+      <c r="E82">
+        <v>-0.0027630010900913313</v>
+      </c>
+      <c r="F82">
+        <v>0.0024572468905264483</v>
+      </c>
+      <c r="G82">
+        <v>1.5647444775420603e-16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>345.5019530200683</v>
+      </c>
+      <c r="B83">
+        <v>102.9557757133598</v>
+      </c>
+      <c r="C83">
+        <v>29.99999956975518</v>
+      </c>
+      <c r="D83">
+        <v>0.9999896594223499</v>
+      </c>
+      <c r="E83">
+        <v>-0.002885210460680656</v>
+      </c>
+      <c r="F83">
+        <v>0.0034719025092321415</v>
+      </c>
+      <c r="G83">
+        <v>-1.651720070497398e-16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>347.6645799382515</v>
+      </c>
+      <c r="B84">
+        <v>99.80265484193208</v>
+      </c>
+      <c r="C84">
+        <v>29.99846489247738</v>
+      </c>
+      <c r="D84">
+        <v>1.000001657794915</v>
+      </c>
+      <c r="E84">
+        <v>0.001057295352288692</v>
+      </c>
+      <c r="F84">
+        <v>-0.0005482506975326652</v>
+      </c>
+      <c r="G84">
+        <v>0.00013092259605044097</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>349.55660954811276</v>
+      </c>
+      <c r="B85">
+        <v>96.51030668373966</v>
+      </c>
+      <c r="C85">
+        <v>29.999979684982886</v>
+      </c>
+      <c r="D85">
+        <v>1.000004292152452</v>
+      </c>
+      <c r="E85">
+        <v>0.002252561195731501</v>
+      </c>
+      <c r="F85">
+        <v>-0.002355940362666777</v>
+      </c>
+      <c r="G85">
+        <v>0.0021749500467407087</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>352.0041830147738</v>
+      </c>
+      <c r="B86">
+        <v>93.52798155133307</v>
+      </c>
+      <c r="C86">
+        <v>29.99727230567008</v>
+      </c>
+      <c r="D86">
+        <v>1.0000011618377658</v>
+      </c>
+      <c r="E86">
+        <v>-3.37032998947952e-5</v>
+      </c>
+      <c r="F86">
+        <v>0.0010162057939906096</v>
+      </c>
+      <c r="G86">
+        <v>-9.948261010203722e-6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>354.56810588491453</v>
+      </c>
+      <c r="B87">
+        <v>90.59386120468413</v>
+      </c>
+      <c r="C87">
+        <v>29.99649854830846</v>
+      </c>
+      <c r="D87">
+        <v>0.9999992458619384</v>
+      </c>
+      <c r="E87">
+        <v>0.0002140065809691289</v>
+      </c>
+      <c r="F87">
+        <v>-0.0012086261666053775</v>
+      </c>
+      <c r="G87">
+        <v>4.5418077306708637e-17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>357.1914088337197</v>
+      </c>
+      <c r="B88">
+        <v>87.69579889163198</v>
+      </c>
+      <c r="C88">
+        <v>29.99999968265983</v>
+      </c>
+      <c r="D88">
+        <v>0.999999271635113</v>
+      </c>
+      <c r="E88">
+        <v>0.00030740476436383736</v>
+      </c>
+      <c r="F88">
+        <v>-0.0011664705669321984</v>
+      </c>
+      <c r="G88">
+        <v>2.3753242672755947e-16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>360.10545353853684</v>
+      </c>
+      <c r="B89">
+        <v>85.18818563920397</v>
+      </c>
+      <c r="C89">
+        <v>29.99775028407768</v>
+      </c>
+      <c r="D89">
+        <v>1.0000026488080207</v>
+      </c>
+      <c r="E89">
+        <v>-0.0005883506393084704</v>
+      </c>
+      <c r="F89">
+        <v>0.0006266068331362662</v>
+      </c>
+      <c r="G89">
+        <v>-0.001396970571511018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>363.22421081811734</v>
+      </c>
+      <c r="B90">
+        <v>82.89343368082302</v>
+      </c>
+      <c r="C90">
+        <v>29.99752572376015</v>
+      </c>
+      <c r="D90">
+        <v>0.9999946552171636</v>
+      </c>
+      <c r="E90">
+        <v>0.0022138509980190917</v>
+      </c>
+      <c r="F90">
+        <v>-0.002388482920000293</v>
+      </c>
+      <c r="G90">
+        <v>4.227293947306937e-17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>366.50978017420607</v>
+      </c>
+      <c r="B91">
+        <v>80.87929602339082</v>
+      </c>
+      <c r="C91">
+        <v>29.99999973444989</v>
+      </c>
+      <c r="D91">
+        <v>0.999992823156438</v>
+      </c>
+      <c r="E91">
+        <v>0.00281799755205093</v>
+      </c>
+      <c r="F91">
+        <v>-0.002502846390920024</v>
+      </c>
+      <c r="G91">
+        <v>1.030154941238378e-16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>369.44329598094856</v>
+      </c>
+      <c r="B92">
+        <v>78.35972301939634</v>
+      </c>
+      <c r="C92">
+        <v>29.998428036088146</v>
+      </c>
+      <c r="D92">
+        <v>1.0000007095451164</v>
+      </c>
+      <c r="E92">
+        <v>-0.0012422535803017732</v>
+      </c>
+      <c r="F92">
+        <v>0.0038642413992429204</v>
+      </c>
+      <c r="G92">
+        <v>-9.166818602886104e-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>372.71792581304277</v>
+      </c>
+      <c r="B93">
+        <v>76.34897084893058</v>
+      </c>
+      <c r="C93">
+        <v>29.999954968526307</v>
+      </c>
+      <c r="D93">
+        <v>1.0000030842514087</v>
+      </c>
+      <c r="E93">
+        <v>-0.0006232644445930408</v>
+      </c>
+      <c r="F93">
+        <v>0.00047302971884569795</v>
+      </c>
+      <c r="G93">
+        <v>-0.0010391781605575405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>375.58900743989363</v>
+      </c>
+      <c r="B94">
+        <v>73.70515896231147</v>
+      </c>
+      <c r="C94">
+        <v>29.997318656420724</v>
+      </c>
+      <c r="D94">
+        <v>1.0000009499036644</v>
+      </c>
+      <c r="E94">
+        <v>0.0009066487190567841</v>
+      </c>
+      <c r="F94">
+        <v>-0.0002445524466716472</v>
+      </c>
+      <c r="G94">
+        <v>-5.936031453663099e-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>377.81635001328027</v>
+      </c>
+      <c r="B95">
+        <v>70.5517653581741</v>
+      </c>
+      <c r="C95">
+        <v>29.997544352230587</v>
+      </c>
+      <c r="D95">
+        <v>0.9999927016011019</v>
+      </c>
+      <c r="E95">
+        <v>-0.002660849204424269</v>
+      </c>
+      <c r="F95">
+        <v>0.0027133107553279443</v>
+      </c>
+      <c r="G95">
+        <v>4.3482214442313845e-16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>379.7528208874604</v>
+      </c>
+      <c r="B96">
+        <v>67.23717749120517</v>
+      </c>
+      <c r="C96">
+        <v>29.999999692908062</v>
+      </c>
+      <c r="D96">
+        <v>0.9999909873199273</v>
+      </c>
+      <c r="E96">
+        <v>-0.002693138754412598</v>
+      </c>
+      <c r="F96">
+        <v>0.003246636448446843</v>
+      </c>
+      <c r="G96">
+        <v>4.3413526687736427e-16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>381.5359556995146</v>
+      </c>
+      <c r="B97">
+        <v>63.87287409583808</v>
+      </c>
+      <c r="C97">
+        <v>29.99929622089227</v>
+      </c>
+      <c r="D97">
+        <v>0.9999944889731107</v>
+      </c>
+      <c r="E97">
+        <v>-0.0024526381548014412</v>
+      </c>
+      <c r="F97">
+        <v>0.0033767044376406003</v>
+      </c>
+      <c r="G97">
+        <v>0.0001611627227598861</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>383.6435480604883</v>
+      </c>
+      <c r="B98">
+        <v>60.640261233024</v>
+      </c>
+      <c r="C98">
+        <v>29.999682718304353</v>
+      </c>
+      <c r="D98">
+        <v>1.0000021780297652</v>
+      </c>
+      <c r="E98">
+        <v>0.0018650363683195312</v>
+      </c>
+      <c r="F98">
+        <v>-0.0017162536627964918</v>
+      </c>
+      <c r="G98">
+        <v>0.00014579976031936528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>385.8599322212287</v>
+      </c>
+      <c r="B99">
+        <v>57.483003190251374</v>
+      </c>
+      <c r="C99">
+        <v>29.998578836618318</v>
+      </c>
+      <c r="D99">
+        <v>1.0000053653602647</v>
+      </c>
+      <c r="E99">
+        <v>0.003580589003413256</v>
+      </c>
+      <c r="F99">
+        <v>-0.002445625769508824</v>
+      </c>
+      <c r="G99">
+        <v>1.9798859533034605e-7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>387.3738605356369</v>
+      </c>
+      <c r="B100">
+        <v>53.978572875239216</v>
+      </c>
+      <c r="C100">
+        <v>29.99997496360466</v>
+      </c>
+      <c r="D100">
+        <v>0.9999954895793108</v>
+      </c>
+      <c r="E100">
+        <v>-0.002154933661980098</v>
+      </c>
+      <c r="F100">
+        <v>0.0035566389516408343</v>
+      </c>
+      <c r="G100">
+        <v>0.0014089971341339157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>389.06799604106067</v>
+      </c>
+      <c r="B101">
+        <v>50.514609899564746</v>
+      </c>
+      <c r="C101">
+        <v>29.997902133891014</v>
+      </c>
+      <c r="D101">
+        <v>1.0000028070441676</v>
+      </c>
+      <c r="E101">
+        <v>0.0006734285382262853</v>
+      </c>
+      <c r="F101">
+        <v>-0.0008921075002061669</v>
+      </c>
+      <c r="G101">
+        <v>0.0007465911599728774</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>390.45675287102296</v>
+      </c>
+      <c r="B102">
+        <v>46.896412715543335</v>
+      </c>
+      <c r="C102">
+        <v>29.996941700496542</v>
+      </c>
+      <c r="D102">
+        <v>0.9999953457636265</v>
+      </c>
+      <c r="E102">
+        <v>-0.0016403983221238037</v>
+      </c>
+      <c r="F102">
+        <v>0.0025600599778679975</v>
+      </c>
+      <c r="G102">
+        <v>2.6923268247930024e-16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>391.1022597927201</v>
+      </c>
+      <c r="B103">
+        <v>43.16596549958389</v>
+      </c>
+      <c r="C103">
+        <v>29.99999955734191</v>
+      </c>
+      <c r="D103">
+        <v>0.9999861401578112</v>
+      </c>
+      <c r="E103">
+        <v>-0.0017135283486661504</v>
+      </c>
+      <c r="F103">
+        <v>0.004924282221776856</v>
+      </c>
+      <c r="G103">
+        <v>8.601773015856511e-16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>392.2998935019508</v>
+      </c>
+      <c r="B104">
+        <v>39.5050728514328</v>
+      </c>
+      <c r="C104">
+        <v>29.998855287863964</v>
+      </c>
+      <c r="D104">
+        <v>1.0000023457095146</v>
+      </c>
+      <c r="E104">
+        <v>0.0006459277070790216</v>
+      </c>
+      <c r="F104">
+        <v>-0.000998748428345336</v>
+      </c>
+      <c r="G104">
+        <v>0.0003915536794579253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>391.6209027773394</v>
+      </c>
+      <c r="B105">
+        <v>36.0502156376715</v>
+      </c>
+      <c r="C105">
+        <v>29.99589248768573</v>
+      </c>
+      <c r="D105">
+        <v>0.999998446373019</v>
+      </c>
+      <c r="E105">
+        <v>7.252447912357346e-6</v>
+      </c>
+      <c r="F105">
+        <v>0.004720518575152967</v>
+      </c>
+      <c r="G105">
+        <v>-0.0007296346695392275</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>390.10666764588825</v>
+      </c>
+      <c r="B106">
+        <v>33.12874718849665</v>
+      </c>
+      <c r="C106">
+        <v>29.99387988872351</v>
+      </c>
+      <c r="D106">
+        <v>0.9999450818515142</v>
+      </c>
+      <c r="E106">
+        <v>0.0021202184475268317</v>
+      </c>
+      <c r="F106">
+        <v>0.009906938424786436</v>
+      </c>
+      <c r="G106">
+        <v>-1.9634015488421817e-16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>388.0171777184445</v>
+      </c>
+      <c r="B107">
+        <v>30.811841189722813</v>
+      </c>
+      <c r="C107">
+        <v>29.99348194891246</v>
+      </c>
+      <c r="D107">
+        <v>0.9999379452047821</v>
+      </c>
+      <c r="E107">
+        <v>0.00403728909081872</v>
+      </c>
+      <c r="F107">
+        <v>0.009941856489031686</v>
+      </c>
+      <c r="G107">
+        <v>-4.516553316514117e-16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>385.5660231998034</v>
+      </c>
+      <c r="B108">
+        <v>28.98214301524024</v>
+      </c>
+      <c r="C108">
+        <v>29.993519724685918</v>
+      </c>
+      <c r="D108">
+        <v>0.9999415502328498</v>
+      </c>
+      <c r="E108">
+        <v>0.005055824786822302</v>
+      </c>
+      <c r="F108">
+        <v>0.009126066977602394</v>
+      </c>
+      <c r="G108">
+        <v>-5.444499791915674e-16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>382.85172480503707</v>
+      </c>
+      <c r="B109">
+        <v>28.25528926677336</v>
+      </c>
+      <c r="C109">
+        <v>29.99281698374497</v>
+      </c>
+      <c r="D109">
+        <v>0.9999267926842366</v>
+      </c>
+      <c r="E109">
+        <v>0.00828803609256723</v>
+      </c>
+      <c r="F109">
+        <v>0.008104579317509828</v>
+      </c>
+      <c r="G109">
+        <v>8.921090760918588e-16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>379.95811985423416</v>
+      </c>
+      <c r="B110">
+        <v>27.65415368844937</v>
+      </c>
+      <c r="C110">
+        <v>29.993952083654165</v>
+      </c>
+      <c r="D110">
+        <v>0.9999484760447473</v>
+      </c>
+      <c r="E110">
+        <v>0.006916178613309523</v>
+      </c>
+      <c r="F110">
+        <v>0.006986698993450117</v>
+      </c>
+      <c r="G110">
+        <v>6.864873812229044e-16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>376.9312337021259</v>
+      </c>
+      <c r="B111">
+        <v>27.323708077265106</v>
+      </c>
+      <c r="C111">
+        <v>29.994898872154113</v>
+      </c>
+      <c r="D111">
+        <v>0.9999600473409501</v>
+      </c>
+      <c r="E111">
+        <v>0.0063991617915156</v>
+      </c>
+      <c r="F111">
+        <v>0.005909672696609341</v>
+      </c>
+      <c r="G111">
+        <v>2.902218633330563e-16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>373.8124840175749</v>
+      </c>
+      <c r="B112">
+        <v>27.31118236729735</v>
+      </c>
+      <c r="C112">
+        <v>29.995425071456395</v>
+      </c>
+      <c r="D112">
+        <v>0.9999672692740765</v>
+      </c>
+      <c r="E112">
+        <v>0.006198067048458274</v>
+      </c>
+      <c r="F112">
+        <v>0.004925920607384025</v>
+      </c>
+      <c r="G112">
+        <v>-7.539245798863053e-16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>370.53136338752137</v>
+      </c>
+      <c r="B113">
+        <v>27.125449301080863</v>
+      </c>
+      <c r="C113">
+        <v>29.996571904943785</v>
+      </c>
+      <c r="D113">
+        <v>0.9999813151358987</v>
+      </c>
+      <c r="E113">
+        <v>0.004090485156090553</v>
+      </c>
+      <c r="F113">
+        <v>0.004435789376682894</v>
+      </c>
+      <c r="G113">
+        <v>-9.37685783754725e-16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>367.1411605744244</v>
+      </c>
+      <c r="B114">
+        <v>26.898226385153162</v>
+      </c>
+      <c r="C114">
+        <v>29.997209746383035</v>
+      </c>
+      <c r="D114">
+        <v>0.9999879546456614</v>
+      </c>
+      <c r="E114">
+        <v>0.0029841060157543287</v>
+      </c>
+      <c r="F114">
+        <v>0.003843633509958347</v>
+      </c>
+      <c r="G114">
+        <v>2.161177212813759e-16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>363.66995902926266</v>
+      </c>
+      <c r="B115">
+        <v>26.79518685782882</v>
+      </c>
+      <c r="C115">
+        <v>29.999999569389075</v>
+      </c>
+      <c r="D115">
+        <v>0.9999905332210334</v>
+      </c>
+      <c r="E115">
+        <v>0.002799184424758074</v>
+      </c>
+      <c r="F115">
+        <v>0.003292933200951061</v>
+      </c>
+      <c r="G115">
+        <v>-8.479440370681906e-17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>360.23774327525615</v>
+      </c>
+      <c r="B116">
+        <v>26.654699979002093</v>
+      </c>
+      <c r="C116">
+        <v>29.99852972519286</v>
+      </c>
+      <c r="D116">
+        <v>1.0000008606912894</v>
+      </c>
+      <c r="E116">
+        <v>0.0003529265186005631</v>
+      </c>
+      <c r="F116">
+        <v>0.00043969785943249307</v>
+      </c>
+      <c r="G116">
+        <v>-0.00026313423118918264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>356.7601561486898</v>
+      </c>
+      <c r="B117">
+        <v>26.016228518245462</v>
+      </c>
+      <c r="C117">
+        <v>29.999971994653958</v>
+      </c>
+      <c r="D117">
+        <v>1.00000316835192</v>
+      </c>
+      <c r="E117">
+        <v>-0.0001568808827976365</v>
+      </c>
+      <c r="F117">
+        <v>0.0006028572651197835</v>
+      </c>
+      <c r="G117">
+        <v>-0.0001294830926053065</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>353.2932013393192</v>
+      </c>
+      <c r="B118">
+        <v>25.28727894843579</v>
+      </c>
+      <c r="C118">
+        <v>29.997654532519075</v>
+      </c>
+      <c r="D118">
+        <v>1.0000033478632273</v>
+      </c>
+      <c r="E118">
+        <v>0.0011677894533653446</v>
+      </c>
+      <c r="F118">
+        <v>-0.0026350899225655406</v>
+      </c>
+      <c r="G118">
+        <v>6.170839797037951e-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>349.6471455177666</v>
+      </c>
+      <c r="B119">
+        <v>24.640979390551063</v>
+      </c>
+      <c r="C119">
+        <v>29.996454036482522</v>
+      </c>
+      <c r="D119">
+        <v>0.999998204684524</v>
+      </c>
+      <c r="E119">
+        <v>-0.00020311839579329816</v>
+      </c>
+      <c r="F119">
+        <v>0.0018814323134996635</v>
+      </c>
+      <c r="G119">
+        <v>-2.0544825274102184e-16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>346.054769765928</v>
+      </c>
+      <c r="B120">
+        <v>23.613719665505577</v>
+      </c>
+      <c r="C120">
+        <v>29.999999667636455</v>
+      </c>
+      <c r="D120">
+        <v>0.9999978452579381</v>
+      </c>
+      <c r="E120">
+        <v>-0.0016614872127721139</v>
+      </c>
+      <c r="F120">
+        <v>0.001239045224750119</v>
+      </c>
+      <c r="G120">
+        <v>-1.0208835810897138e-15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>342.91924463474504</v>
+      </c>
+      <c r="B121">
+        <v>21.833361631869625</v>
+      </c>
+      <c r="C121">
+        <v>29.998758802261506</v>
+      </c>
+      <c r="D121">
+        <v>0.9999931547528316</v>
+      </c>
+      <c r="E121">
+        <v>-0.00502582635390855</v>
+      </c>
+      <c r="F121">
+        <v>-0.0010567974418644558</v>
+      </c>
+      <c r="G121">
+        <v>0.0030712557454903506</v>
       </c>
     </row>
   </sheetData>
